--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/物品.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17805"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -318,7 +313,7 @@
     <t>练出物品（练出物品ID，需要物品ID,需要物品数量）</t>
   </si>
   <si>
-    <t>康倍特</t>
+    <t>伤药</t>
   </si>
   <si>
     <t>康</t>
@@ -417,6 +412,9 @@
     <t>内伤别怕，用后可将人轻易举起</t>
   </si>
   <si>
+    <t>人参</t>
+  </si>
+  <si>
     <t>人</t>
   </si>
   <si>
@@ -615,6 +613,9 @@
     <t>珍贵异果，可提高内力最大值</t>
   </si>
   <si>
+    <t>千年人参</t>
+  </si>
+  <si>
     <t>千年物，提高生命及内力最大值</t>
   </si>
   <si>
@@ -642,7 +643,7 @@
     <t>毒性极高，可使练毒者功力大增</t>
   </si>
   <si>
-    <t>莽牯朱蛤</t>
+    <t>万毒不侵蛤</t>
   </si>
   <si>
     <t>莽牯朱蛤</t>
@@ -660,7 +661,7 @@
     <t>华山派修行内功之心法</t>
   </si>
   <si>
-    <t>小无相功</t>
+    <t>无相功法</t>
   </si>
   <si>
     <t>逍遥派之内功心法</t>
@@ -675,7 +676,7 @@
     <t>记载少林罗汉伏魔神功泥偶</t>
   </si>
   <si>
-    <t>神照经</t>
+    <t>神照之法</t>
   </si>
   <si>
     <t>神照经</t>
@@ -684,7 +685,7 @@
     <t>修习内功之奥妙法门</t>
   </si>
   <si>
-    <t>易筋经</t>
+    <t>易筋功法</t>
   </si>
   <si>
     <t>易筋经</t>
@@ -693,7 +694,7 @@
     <t>少林寺修行内功之无上心法</t>
   </si>
   <si>
-    <t>洗髓经</t>
+    <t>洗髓功法</t>
   </si>
   <si>
     <t>洗</t>
@@ -711,7 +712,7 @@
     <t>武当派修行轻功之心法</t>
   </si>
   <si>
-    <t>神行百变</t>
+    <t>神行百变法</t>
   </si>
   <si>
     <t>神行百变</t>
@@ -720,7 +721,7 @@
     <t>增加轻功能力的武功秘籍</t>
   </si>
   <si>
-    <t>凌波微步</t>
+    <t>凌波轻身法</t>
   </si>
   <si>
     <t>凌波</t>
@@ -729,7 +730,7 @@
     <t>逍遥派绝学，可增强轻功能力</t>
   </si>
   <si>
-    <t>子午针灸经</t>
+    <t>针灸经</t>
   </si>
   <si>
     <t>子</t>
@@ -741,7 +742,7 @@
     <t>1,1|3,2|22,3|4,4|16,5</t>
   </si>
   <si>
-    <t>华陀内昭图</t>
+    <t>华陀医法</t>
   </si>
   <si>
     <t>华陀内昭</t>
@@ -753,7 +754,7 @@
     <t>5,6|6,7|14,8|15,9|8,10</t>
   </si>
   <si>
-    <t>胡青牛医书</t>
+    <t>蝶谷医书</t>
   </si>
   <si>
     <t>胡</t>
@@ -765,7 +766,7 @@
     <t>25,11|7,12|12,13|9,14|17,15</t>
   </si>
   <si>
-    <t>五毒秘传</t>
+    <t>五毒毒经</t>
   </si>
   <si>
     <t>五毒</t>
@@ -789,7 +790,7 @@
     <t>22,3|23,6|24,9|25,12</t>
   </si>
   <si>
-    <t>药王神篇</t>
+    <t>药王医法</t>
   </si>
   <si>
     <t>药王神篇</t>
@@ -801,7 +802,7 @@
     <t>22,3|23,6|24,9|25,12|26,15</t>
   </si>
   <si>
-    <t>铁掌拳谱</t>
+    <t>钢铁掌谱</t>
   </si>
   <si>
     <t>铁</t>
@@ -810,7 +811,7 @@
     <t>铁掌帮之扬名绝学</t>
   </si>
   <si>
-    <t>七伤拳谱</t>
+    <t>七伤七破拳谱</t>
   </si>
   <si>
     <t>七</t>
@@ -819,13 +820,13 @@
     <t>崆峒派之独门拳法</t>
   </si>
   <si>
-    <t>天山六阳掌</t>
+    <t>天山掌谱</t>
   </si>
   <si>
     <t>逍遥派之掌法秘籍</t>
   </si>
   <si>
-    <t>玄冥神掌</t>
+    <t>玄冥掌谱</t>
   </si>
   <si>
     <t>玄冥神掌</t>
@@ -843,7 +844,7 @@
     <t>武当派之新创绝学，四两拨千斤</t>
   </si>
   <si>
-    <t>龙象般若功</t>
+    <t>龙象九重功</t>
   </si>
   <si>
     <t>龙</t>
@@ -852,7 +853,7 @@
     <t>密宗至高无上之护法神功</t>
   </si>
   <si>
-    <t>太玄经</t>
+    <t>太玄秘笈</t>
   </si>
   <si>
     <t>太玄经</t>
@@ -861,7 +862,7 @@
     <t>无人可解之神秘武功</t>
   </si>
   <si>
-    <t>黯然销魂掌</t>
+    <t>黯然蚀骨掌</t>
   </si>
   <si>
     <t>黯</t>
@@ -870,7 +871,7 @@
     <t>杨过所创之强力掌法</t>
   </si>
   <si>
-    <t>降龙十八掌</t>
+    <t>降龙掌谱</t>
   </si>
   <si>
     <t>降龙</t>
@@ -879,7 +880,7 @@
     <t>丐帮镇帮之宝</t>
   </si>
   <si>
-    <t>北冥神功</t>
+    <t>北冥内劲谱</t>
   </si>
   <si>
     <t>北</t>
@@ -888,7 +889,7 @@
     <t>逍遥派绝学，吸人内力化为己用</t>
   </si>
   <si>
-    <t>吸星大法</t>
+    <t>吸星之法功</t>
   </si>
   <si>
     <t>吸</t>
@@ -897,7 +898,7 @@
     <t>可吸敌人内力化为己用</t>
   </si>
   <si>
-    <t>神木王鼎</t>
+    <t>毒鼎</t>
   </si>
   <si>
     <t>神木王鼎</t>
@@ -906,7 +907,7 @@
     <t>星宿海掌门练化功大法之物</t>
   </si>
   <si>
-    <t>六脉神剑谱</t>
+    <t>六脉气劲指</t>
   </si>
   <si>
     <t>六脉神剑</t>
@@ -915,7 +916,7 @@
     <t>大理段家之超强剑气绝学</t>
   </si>
   <si>
-    <t>松风剑谱</t>
+    <t>三分剑谱</t>
   </si>
   <si>
     <t>松</t>
@@ -924,7 +925,7 @@
     <t>四川青城之剑法</t>
   </si>
   <si>
-    <t>泰山十八盘</t>
+    <t>泰山五神剑</t>
   </si>
   <si>
     <t>泰山</t>
@@ -933,7 +934,7 @@
     <t>泰山派高深之剑法</t>
   </si>
   <si>
-    <t>回峰落雁剑法</t>
+    <t>落雁逍遥剑</t>
   </si>
   <si>
     <t>衡山派千变万化之剑法</t>
@@ -954,7 +955,7 @@
     <t>昆仑派之独门绝学</t>
   </si>
   <si>
-    <t>金蛇秘籍</t>
+    <t>黄蟒秘籍</t>
   </si>
   <si>
     <t>金蛇</t>
@@ -963,7 +964,7 @@
     <t>金蛇郎君观蛇时悟出之剑法</t>
   </si>
   <si>
-    <t>玉女素心剑法</t>
+    <t>玉女剑谱</t>
   </si>
   <si>
     <t>玉女</t>
@@ -972,7 +973,7 @@
     <t>古墓派轻巧之剑法</t>
   </si>
   <si>
-    <t>苗家剑法</t>
+    <t>四象八卦剑谱</t>
   </si>
   <si>
     <t>苗</t>
@@ -999,7 +1000,7 @@
     <t>少林七十二绝技之一</t>
   </si>
   <si>
-    <t>玄铁剑法</t>
+    <t>玄铁斩秘笈</t>
   </si>
   <si>
     <t>玄铁</t>
@@ -1008,7 +1009,7 @@
     <t>杨过悟于剑魔所留之秘籍</t>
   </si>
   <si>
-    <t>辟邪剑谱</t>
+    <t>阴邪神剑谱</t>
   </si>
   <si>
     <t>辟</t>
@@ -1017,7 +1018,7 @@
     <t>剑法阴损毒辣，修习者断子绝孙</t>
   </si>
   <si>
-    <t>独孤九剑</t>
+    <t>求败剑秘笈</t>
   </si>
   <si>
     <t>独</t>
@@ -1026,7 +1027,7 @@
     <t>独孤求败所创之高深剑法</t>
   </si>
   <si>
-    <t>血刀经</t>
+    <t>血刀斩法谱</t>
   </si>
   <si>
     <t>血刀</t>
@@ -1062,7 +1063,7 @@
     <t>速度极快之刀法</t>
   </si>
   <si>
-    <t>胡家刀法</t>
+    <t>古月刀法</t>
   </si>
   <si>
     <t>胡一刀家传之刀谱</t>
@@ -1083,7 +1084,7 @@
     <t>轻盈灵巧，千变万化之鞭法</t>
   </si>
   <si>
-    <t>黄沙万里鞭法</t>
+    <t>黄沙鞭法</t>
   </si>
   <si>
     <t>黄沙</t>
@@ -1092,7 +1093,7 @@
     <t>相传至西域之鞭法</t>
   </si>
   <si>
-    <t>满天花雨</t>
+    <t>暗器手法秘笈</t>
   </si>
   <si>
     <t>满天花雨</t>
@@ -1119,7 +1120,7 @@
     <t>五毒教之暗器总诀</t>
   </si>
   <si>
-    <t>左右互搏之术</t>
+    <t>双手互搏秘术</t>
   </si>
   <si>
     <t>左右</t>
@@ -1128,7 +1129,7 @@
     <t>修习后可攻击两次</t>
   </si>
   <si>
-    <t>乾坤大挪移</t>
+    <t>乾坤挪移之法</t>
   </si>
   <si>
     <t>干坤</t>
@@ -1137,7 +1138,7 @@
     <t>明教宝典，修行后可增加防御力</t>
   </si>
   <si>
-    <t>葵花宝典</t>
+    <t>葵花内功谱</t>
   </si>
   <si>
     <t>葵花宝</t>
@@ -1146,13 +1147,13 @@
     <t>道家修行内功之无上心法</t>
   </si>
   <si>
-    <t>九阴真经</t>
+    <t>九阴内功谱</t>
   </si>
   <si>
     <t>至高无上之武功宝典</t>
   </si>
   <si>
-    <t>九阳真经</t>
+    <t>纯阳内功谱</t>
   </si>
   <si>
     <t>飞蝗石</t>
@@ -1583,7 +1584,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t></t>
     </r>
@@ -1601,7 +1602,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t></t>
     </r>
@@ -1978,20 +1979,18 @@
   <si>
     <t>最后</t>
   </si>
-  <si>
-    <t>人参</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年人参</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2002,7 +2001,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2013,38 +2012,368 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2052,25 +2381,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2082,25 +2653,70 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2429,30 +3045,32 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AX203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +3216,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -2746,15 +3364,15 @@
       <c r="AW3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AX3" s="5" t="s">
+      <c r="AX3" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50">
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2898,9 +3516,9 @@
       <c r="AW4" s="3">
         <v>-1</v>
       </c>
-      <c r="AX4" s="6"/>
+      <c r="AX4" s="8"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3048,9 +3666,9 @@
       <c r="AW5" s="3">
         <v>-1</v>
       </c>
-      <c r="AX5" s="6"/>
+      <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3198,9 +3816,9 @@
       <c r="AW6" s="3">
         <v>-1</v>
       </c>
-      <c r="AX6" s="6"/>
+      <c r="AX6" s="8"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3348,9 +3966,9 @@
       <c r="AW7" s="3">
         <v>-1</v>
       </c>
-      <c r="AX7" s="6"/>
+      <c r="AX7" s="8"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -3498,9 +4116,9 @@
       <c r="AW8" s="3">
         <v>-1</v>
       </c>
-      <c r="AX8" s="6"/>
+      <c r="AX8" s="8"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3648,9 +4266,9 @@
       <c r="AW9" s="3">
         <v>-1</v>
       </c>
-      <c r="AX9" s="6"/>
+      <c r="AX9" s="8"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3798,9 +4416,9 @@
       <c r="AW10" s="3">
         <v>-1</v>
       </c>
-      <c r="AX10" s="6"/>
+      <c r="AX10" s="8"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -3948,9 +4566,9 @@
       <c r="AW11" s="3">
         <v>-1</v>
       </c>
-      <c r="AX11" s="6"/>
+      <c r="AX11" s="8"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -4098,9 +4716,9 @@
       <c r="AW12" s="3">
         <v>-1</v>
       </c>
-      <c r="AX12" s="6"/>
+      <c r="AX12" s="8"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -4248,9 +4866,9 @@
       <c r="AW13" s="3">
         <v>-1</v>
       </c>
-      <c r="AX13" s="6"/>
+      <c r="AX13" s="8"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -4398,20 +5016,20 @@
       <c r="AW14" s="3">
         <v>-1</v>
       </c>
-      <c r="AX14" s="6"/>
+      <c r="AX14" s="8"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>638</v>
+      <c r="B15" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -4548,20 +5166,20 @@
       <c r="AW15" s="3">
         <v>-1</v>
       </c>
-      <c r="AX15" s="6"/>
+      <c r="AX15" s="8"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" s="3">
         <v>-1</v>
@@ -4698,20 +5316,20 @@
       <c r="AW16" s="3">
         <v>-1</v>
       </c>
-      <c r="AX16" s="6"/>
+      <c r="AX16" s="8"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -4848,20 +5466,20 @@
       <c r="AW17" s="3">
         <v>-1</v>
       </c>
-      <c r="AX17" s="6"/>
+      <c r="AX17" s="8"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -4998,20 +5616,20 @@
       <c r="AW18" s="3">
         <v>-1</v>
       </c>
-      <c r="AX18" s="6"/>
+      <c r="AX18" s="8"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E19" s="3">
         <v>-1</v>
@@ -5148,20 +5766,20 @@
       <c r="AW19" s="3">
         <v>-1</v>
       </c>
-      <c r="AX19" s="6"/>
+      <c r="AX19" s="8"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" s="3">
         <v>-1</v>
@@ -5298,20 +5916,20 @@
       <c r="AW20" s="3">
         <v>-1</v>
       </c>
-      <c r="AX20" s="6"/>
+      <c r="AX20" s="8"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50">
       <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -5448,20 +6066,20 @@
       <c r="AW21" s="3">
         <v>-1</v>
       </c>
-      <c r="AX21" s="6"/>
+      <c r="AX21" s="8"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -5598,20 +6216,20 @@
       <c r="AW22" s="3">
         <v>-1</v>
       </c>
-      <c r="AX22" s="6"/>
+      <c r="AX22" s="8"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -5748,20 +6366,20 @@
       <c r="AW23" s="3">
         <v>-1</v>
       </c>
-      <c r="AX23" s="6"/>
+      <c r="AX23" s="8"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -5898,20 +6516,20 @@
       <c r="AW24" s="3">
         <v>-1</v>
       </c>
-      <c r="AX24" s="6"/>
+      <c r="AX24" s="8"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -6048,20 +6666,20 @@
       <c r="AW25" s="3">
         <v>-1</v>
       </c>
-      <c r="AX25" s="6"/>
+      <c r="AX25" s="8"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50">
       <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -6198,20 +6816,20 @@
       <c r="AW26" s="3">
         <v>-1</v>
       </c>
-      <c r="AX26" s="6"/>
+      <c r="AX26" s="8"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -6348,20 +6966,20 @@
       <c r="AW27" s="3">
         <v>-1</v>
       </c>
-      <c r="AX27" s="6"/>
+      <c r="AX27" s="8"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50">
       <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -6498,20 +7116,20 @@
       <c r="AW28" s="3">
         <v>-1</v>
       </c>
-      <c r="AX28" s="6"/>
+      <c r="AX28" s="8"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -6648,20 +7266,20 @@
       <c r="AW29" s="3">
         <v>-1</v>
       </c>
-      <c r="AX29" s="6"/>
+      <c r="AX29" s="8"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -6798,20 +7416,20 @@
       <c r="AW30" s="3">
         <v>-1</v>
       </c>
-      <c r="AX30" s="6"/>
+      <c r="AX30" s="8"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -6948,20 +7566,20 @@
       <c r="AW31" s="3">
         <v>-1</v>
       </c>
-      <c r="AX31" s="6"/>
+      <c r="AX31" s="8"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -7098,20 +7716,20 @@
       <c r="AW32" s="3">
         <v>-1</v>
       </c>
-      <c r="AX32" s="6"/>
+      <c r="AX32" s="8"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -7248,20 +7866,20 @@
       <c r="AW33" s="3">
         <v>-1</v>
       </c>
-      <c r="AX33" s="6"/>
+      <c r="AX33" s="8"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E34" s="3">
         <v>-1</v>
@@ -7398,20 +8016,20 @@
       <c r="AW34" s="3">
         <v>-1</v>
       </c>
-      <c r="AX34" s="6"/>
+      <c r="AX34" s="8"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -7548,20 +8166,20 @@
       <c r="AW35" s="3">
         <v>-1</v>
       </c>
-      <c r="AX35" s="6"/>
+      <c r="AX35" s="8"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -7698,20 +8316,20 @@
       <c r="AW36" s="3">
         <v>-1</v>
       </c>
-      <c r="AX36" s="6"/>
+      <c r="AX36" s="8"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="3">
         <v>-1</v>
@@ -7848,20 +8466,20 @@
       <c r="AW37" s="3">
         <v>-1</v>
       </c>
-      <c r="AX37" s="6"/>
+      <c r="AX37" s="8"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50">
       <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>639</v>
+      <c r="B38" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -7998,20 +8616,20 @@
       <c r="AW38" s="3">
         <v>-1</v>
       </c>
-      <c r="AX38" s="6"/>
+      <c r="AX38" s="8"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E39" s="3">
         <v>-1</v>
@@ -8148,20 +8766,20 @@
       <c r="AW39" s="3">
         <v>-1</v>
       </c>
-      <c r="AX39" s="6"/>
+      <c r="AX39" s="8"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -8298,20 +8916,20 @@
       <c r="AW40" s="3">
         <v>-1</v>
       </c>
-      <c r="AX40" s="6"/>
+      <c r="AX40" s="8"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -8448,20 +9066,20 @@
       <c r="AW41" s="3">
         <v>-1</v>
       </c>
-      <c r="AX41" s="6"/>
+      <c r="AX41" s="8"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50">
       <c r="A42" s="3">
         <v>38</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>207</v>
+      <c r="B42" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -8598,20 +9216,20 @@
       <c r="AW42" s="3">
         <v>-1</v>
       </c>
-      <c r="AX42" s="6"/>
+      <c r="AX42" s="8"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E43" s="3">
         <v>-1</v>
@@ -8748,20 +9366,20 @@
       <c r="AW43" s="3">
         <v>-1</v>
       </c>
-      <c r="AX43" s="6"/>
+      <c r="AX43" s="8"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:50">
       <c r="A44" s="3">
         <v>40</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>213</v>
+      <c r="B44" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E44" s="3">
         <v>-1</v>
@@ -8898,20 +9516,20 @@
       <c r="AW44" s="3">
         <v>-1</v>
       </c>
-      <c r="AX44" s="6"/>
+      <c r="AX44" s="8"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:50">
       <c r="A45" s="3">
         <v>41</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>215</v>
+      <c r="B45" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E45" s="3">
         <v>-1</v>
@@ -9048,20 +9666,20 @@
       <c r="AW45" s="3">
         <v>-1</v>
       </c>
-      <c r="AX45" s="6"/>
+      <c r="AX45" s="8"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:50">
       <c r="A46" s="3">
         <v>42</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>218</v>
+      <c r="B46" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E46" s="3">
         <v>-1</v>
@@ -9198,20 +9816,20 @@
       <c r="AW46" s="3">
         <v>-1</v>
       </c>
-      <c r="AX46" s="6"/>
+      <c r="AX46" s="8"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:50">
       <c r="A47" s="3">
         <v>43</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>221</v>
+      <c r="B47" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -9348,20 +9966,20 @@
       <c r="AW47" s="3">
         <v>-1</v>
       </c>
-      <c r="AX47" s="6"/>
+      <c r="AX47" s="8"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:50">
       <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>224</v>
+      <c r="B48" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -9498,20 +10116,20 @@
       <c r="AW48" s="3">
         <v>-1</v>
       </c>
-      <c r="AX48" s="6"/>
+      <c r="AX48" s="8"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:50">
       <c r="A49" s="3">
         <v>45</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>227</v>
+      <c r="B49" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -9648,20 +10266,20 @@
       <c r="AW49" s="3">
         <v>-1</v>
       </c>
-      <c r="AX49" s="6"/>
+      <c r="AX49" s="8"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:50">
       <c r="A50" s="3">
         <v>46</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>230</v>
+      <c r="B50" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -9798,20 +10416,20 @@
       <c r="AW50" s="3">
         <v>-1</v>
       </c>
-      <c r="AX50" s="6"/>
+      <c r="AX50" s="8"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:50">
       <c r="A51" s="3">
         <v>47</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>233</v>
+      <c r="B51" s="5" t="s">
+        <v>235</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E51" s="3">
         <v>-1</v>
@@ -9948,20 +10566,20 @@
       <c r="AW51" s="3">
         <v>-1</v>
       </c>
-      <c r="AX51" s="6"/>
+      <c r="AX51" s="8"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:50">
       <c r="A52" s="3">
         <v>48</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>236</v>
+      <c r="B52" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E52" s="3">
         <v>-1</v>
@@ -10098,22 +10716,22 @@
       <c r="AW52" s="3">
         <v>171</v>
       </c>
-      <c r="AX52" s="6" t="s">
-        <v>239</v>
+      <c r="AX52" s="8" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:50">
       <c r="A53" s="3">
         <v>49</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>240</v>
+      <c r="B53" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -10250,22 +10868,22 @@
       <c r="AW53" s="3">
         <v>171</v>
       </c>
-      <c r="AX53" s="6" t="s">
-        <v>243</v>
+      <c r="AX53" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:50">
       <c r="A54" s="3">
         <v>50</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>244</v>
+      <c r="B54" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E54" s="3">
         <v>-1</v>
@@ -10402,22 +11020,22 @@
       <c r="AW54" s="3">
         <v>171</v>
       </c>
-      <c r="AX54" s="6" t="s">
-        <v>247</v>
+      <c r="AX54" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:50">
       <c r="A55" s="3">
         <v>51</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>248</v>
+      <c r="B55" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E55" s="3">
         <v>-1</v>
@@ -10554,22 +11172,22 @@
       <c r="AW55" s="3">
         <v>171</v>
       </c>
-      <c r="AX55" s="6" t="s">
-        <v>251</v>
+      <c r="AX55" s="8" t="s">
+        <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:50">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E56" s="3">
         <v>-1</v>
@@ -10706,22 +11324,22 @@
       <c r="AW56" s="3">
         <v>171</v>
       </c>
-      <c r="AX56" s="6" t="s">
-        <v>255</v>
+      <c r="AX56" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:50">
       <c r="A57" s="3">
         <v>53</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>256</v>
+      <c r="B57" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E57" s="3">
         <v>-1</v>
@@ -10858,22 +11476,22 @@
       <c r="AW57" s="3">
         <v>171</v>
       </c>
-      <c r="AX57" s="6" t="s">
-        <v>259</v>
+      <c r="AX57" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:50">
       <c r="A58" s="3">
         <v>54</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>260</v>
+      <c r="B58" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E58" s="3">
         <v>11</v>
@@ -11010,20 +11628,20 @@
       <c r="AW58" s="3">
         <v>-1</v>
       </c>
-      <c r="AX58" s="6"/>
+      <c r="AX58" s="8"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:50">
       <c r="A59" s="3">
         <v>55</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>263</v>
+      <c r="B59" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
@@ -11160,20 +11778,20 @@
       <c r="AW59" s="3">
         <v>-1</v>
       </c>
-      <c r="AX59" s="6"/>
+      <c r="AX59" s="8"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:50">
       <c r="A60" s="3">
         <v>56</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>266</v>
+      <c r="B60" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E60" s="3">
         <v>15</v>
@@ -11310,20 +11928,20 @@
       <c r="AW60" s="3">
         <v>-1</v>
       </c>
-      <c r="AX60" s="6"/>
+      <c r="AX60" s="8"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:50">
       <c r="A61" s="3">
         <v>57</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>268</v>
+      <c r="B61" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E61" s="3">
         <v>16</v>
@@ -11460,20 +12078,20 @@
       <c r="AW61" s="3">
         <v>-1</v>
       </c>
-      <c r="AX61" s="6"/>
+      <c r="AX61" s="8"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:50">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E62" s="3">
         <v>20</v>
@@ -11610,20 +12228,20 @@
       <c r="AW62" s="3">
         <v>-1</v>
       </c>
-      <c r="AX62" s="6"/>
+      <c r="AX62" s="8"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:50">
       <c r="A63" s="3">
         <v>59</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>274</v>
+      <c r="B63" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E63" s="3">
         <v>18</v>
@@ -11760,20 +12378,20 @@
       <c r="AW63" s="3">
         <v>-1</v>
       </c>
-      <c r="AX63" s="6"/>
+      <c r="AX63" s="8"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:50">
       <c r="A64" s="3">
         <v>60</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>277</v>
+      <c r="B64" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E64" s="3">
         <v>23</v>
@@ -11910,20 +12528,20 @@
       <c r="AW64" s="3">
         <v>-1</v>
       </c>
-      <c r="AX64" s="6"/>
+      <c r="AX64" s="8"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:50">
       <c r="A65" s="3">
         <v>61</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>280</v>
+      <c r="B65" s="5" t="s">
+        <v>282</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E65" s="3">
         <v>24</v>
@@ -12060,20 +12678,20 @@
       <c r="AW65" s="3">
         <v>-1</v>
       </c>
-      <c r="AX65" s="6"/>
+      <c r="AX65" s="8"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:50">
       <c r="A66" s="3">
         <v>62</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>283</v>
+      <c r="B66" s="5" t="s">
+        <v>285</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E66" s="3">
         <v>25</v>
@@ -12210,20 +12828,20 @@
       <c r="AW66" s="3">
         <v>-1</v>
       </c>
-      <c r="AX66" s="6"/>
+      <c r="AX66" s="8"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:50">
       <c r="A67" s="3">
         <v>63</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>286</v>
+      <c r="B67" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E67" s="3">
         <v>29</v>
@@ -12360,20 +12978,20 @@
       <c r="AW67" s="3">
         <v>-1</v>
       </c>
-      <c r="AX67" s="6"/>
+      <c r="AX67" s="8"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:50">
       <c r="A68" s="3">
         <v>64</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>289</v>
+      <c r="B68" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E68" s="3">
         <v>28</v>
@@ -12510,20 +13128,20 @@
       <c r="AW68" s="3">
         <v>-1</v>
       </c>
-      <c r="AX68" s="6"/>
+      <c r="AX68" s="8"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:50">
       <c r="A69" s="3">
         <v>65</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>292</v>
+      <c r="B69" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E69" s="3">
         <v>27</v>
@@ -12660,20 +13278,20 @@
       <c r="AW69" s="3">
         <v>-1</v>
       </c>
-      <c r="AX69" s="6"/>
+      <c r="AX69" s="8"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:50">
       <c r="A70" s="3">
         <v>66</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>295</v>
+      <c r="B70" s="5" t="s">
+        <v>297</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E70" s="3">
         <v>30</v>
@@ -12810,20 +13428,20 @@
       <c r="AW70" s="3">
         <v>-1</v>
       </c>
-      <c r="AX70" s="6"/>
+      <c r="AX70" s="8"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:50">
       <c r="A71" s="3">
         <v>67</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>298</v>
+      <c r="B71" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E71" s="3">
         <v>89</v>
@@ -12960,20 +13578,20 @@
       <c r="AW71" s="3">
         <v>-1</v>
       </c>
-      <c r="AX71" s="6"/>
+      <c r="AX71" s="8"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:50">
       <c r="A72" s="3">
         <v>68</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>301</v>
+      <c r="B72" s="5" t="s">
+        <v>303</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E72" s="3">
         <v>45</v>
@@ -13110,20 +13728,20 @@
       <c r="AW72" s="3">
         <v>-1</v>
       </c>
-      <c r="AX72" s="6"/>
+      <c r="AX72" s="8"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:50">
       <c r="A73" s="3">
         <v>69</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>304</v>
+      <c r="B73" s="5" t="s">
+        <v>306</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E73" s="3">
         <v>46</v>
@@ -13260,20 +13878,20 @@
       <c r="AW73" s="3">
         <v>-1</v>
       </c>
-      <c r="AX73" s="6"/>
+      <c r="AX73" s="8"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:50">
       <c r="A74" s="3">
         <v>70</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>306</v>
+      <c r="B74" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E74" s="3">
         <v>53</v>
@@ -13410,20 +14028,20 @@
       <c r="AW74" s="3">
         <v>-1</v>
       </c>
-      <c r="AX74" s="6"/>
+      <c r="AX74" s="8"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:50">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E75" s="3">
         <v>47</v>
@@ -13560,20 +14178,20 @@
       <c r="AW75" s="3">
         <v>-1</v>
       </c>
-      <c r="AX75" s="6"/>
+      <c r="AX75" s="8"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:50">
       <c r="A76" s="3">
         <v>72</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>311</v>
+      <c r="B76" s="5" t="s">
+        <v>313</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E76" s="3">
         <v>54</v>
@@ -13710,20 +14328,20 @@
       <c r="AW76" s="3">
         <v>-1</v>
       </c>
-      <c r="AX76" s="6"/>
+      <c r="AX76" s="8"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:50">
       <c r="A77" s="3">
         <v>73</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>314</v>
+      <c r="B77" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E77" s="3">
         <v>49</v>
@@ -13860,20 +14478,20 @@
       <c r="AW77" s="3">
         <v>-1</v>
       </c>
-      <c r="AX77" s="6"/>
+      <c r="AX77" s="8"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:50">
       <c r="A78" s="3">
         <v>74</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>317</v>
+      <c r="B78" s="5" t="s">
+        <v>319</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E78" s="3">
         <v>55</v>
@@ -14010,20 +14628,20 @@
       <c r="AW78" s="3">
         <v>-1</v>
       </c>
-      <c r="AX78" s="6"/>
+      <c r="AX78" s="8"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:50">
       <c r="A79" s="3">
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E79" s="3">
         <v>58</v>
@@ -14160,20 +14778,20 @@
       <c r="AW79" s="3">
         <v>-1</v>
       </c>
-      <c r="AX79" s="6"/>
+      <c r="AX79" s="8"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:50">
       <c r="A80" s="3">
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E80" s="3">
         <v>59</v>
@@ -14310,20 +14928,20 @@
       <c r="AW80" s="3">
         <v>-1</v>
       </c>
-      <c r="AX80" s="6"/>
+      <c r="AX80" s="8"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:50">
       <c r="A81" s="3">
         <v>77</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>326</v>
+      <c r="B81" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E81" s="3">
         <v>57</v>
@@ -14460,20 +15078,20 @@
       <c r="AW81" s="3">
         <v>-1</v>
       </c>
-      <c r="AX81" s="6"/>
+      <c r="AX81" s="8"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:50">
       <c r="A82" s="3">
         <v>78</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>329</v>
+      <c r="B82" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E82" s="3">
         <v>60</v>
@@ -14610,20 +15228,20 @@
       <c r="AW82" s="3">
         <v>-1</v>
       </c>
-      <c r="AX82" s="6"/>
+      <c r="AX82" s="8"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:50">
       <c r="A83" s="3">
         <v>79</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>332</v>
+      <c r="B83" s="5" t="s">
+        <v>334</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E83" s="3">
         <v>61</v>
@@ -14760,20 +15378,20 @@
       <c r="AW83" s="3">
         <v>-1</v>
       </c>
-      <c r="AX83" s="6"/>
+      <c r="AX83" s="8"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:50">
       <c r="A84" s="3">
         <v>80</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>335</v>
+      <c r="B84" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E84" s="3">
         <v>63</v>
@@ -14910,20 +15528,20 @@
       <c r="AW84" s="3">
         <v>-1</v>
       </c>
-      <c r="AX84" s="6"/>
+      <c r="AX84" s="8"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:50">
       <c r="A85" s="3">
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E85" s="3">
         <v>66</v>
@@ -15060,20 +15678,20 @@
       <c r="AW85" s="3">
         <v>-1</v>
       </c>
-      <c r="AX85" s="6"/>
+      <c r="AX85" s="8"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:50">
       <c r="A86" s="3">
         <v>82</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>341</v>
+      <c r="B86" s="5" t="s">
+        <v>343</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E86" s="3">
         <v>65</v>
@@ -15210,20 +15828,20 @@
       <c r="AW86" s="3">
         <v>-1</v>
       </c>
-      <c r="AX86" s="6"/>
+      <c r="AX86" s="8"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:50">
       <c r="A87" s="3">
         <v>83</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>344</v>
+      <c r="B87" s="5" t="s">
+        <v>346</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E87" s="3">
         <v>64</v>
@@ -15360,20 +15978,20 @@
       <c r="AW87" s="3">
         <v>-1</v>
       </c>
-      <c r="AX87" s="6"/>
+      <c r="AX87" s="8"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:50">
       <c r="A88" s="3">
         <v>84</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>347</v>
+      <c r="B88" s="5" t="s">
+        <v>349</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E88" s="3">
         <v>67</v>
@@ -15510,20 +16128,20 @@
       <c r="AW88" s="3">
         <v>-1</v>
       </c>
-      <c r="AX88" s="6"/>
+      <c r="AX88" s="8"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:50">
       <c r="A89" s="3">
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E89" s="3">
         <v>68</v>
@@ -15660,20 +16278,20 @@
       <c r="AW89" s="3">
         <v>-1</v>
       </c>
-      <c r="AX89" s="6"/>
+      <c r="AX89" s="8"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:50">
       <c r="A90" s="3">
         <v>86</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>352</v>
+      <c r="B90" s="5" t="s">
+        <v>354</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E90" s="3">
         <v>77</v>
@@ -15810,20 +16428,20 @@
       <c r="AW90" s="3">
         <v>-1</v>
       </c>
-      <c r="AX90" s="6"/>
+      <c r="AX90" s="8"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:50">
       <c r="A91" s="3">
         <v>87</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>354</v>
+      <c r="B91" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E91" s="3">
         <v>78</v>
@@ -15960,20 +16578,20 @@
       <c r="AW91" s="3">
         <v>-1</v>
       </c>
-      <c r="AX91" s="6"/>
+      <c r="AX91" s="8"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:50">
       <c r="A92" s="3">
         <v>88</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>357</v>
+      <c r="B92" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E92" s="3">
         <v>-1</v>
@@ -16110,20 +16728,20 @@
       <c r="AW92" s="3">
         <v>-1</v>
       </c>
-      <c r="AX92" s="6"/>
+      <c r="AX92" s="8"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:50">
       <c r="A93" s="3">
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E93" s="3">
         <v>-1</v>
@@ -16260,22 +16878,22 @@
       <c r="AW93" s="3">
         <v>172</v>
       </c>
-      <c r="AX93" s="6" t="s">
-        <v>362</v>
+      <c r="AX93" s="8" t="s">
+        <v>364</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:50">
       <c r="A94" s="3">
         <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E94" s="3">
         <v>-1</v>
@@ -16412,20 +17030,20 @@
       <c r="AW94" s="3">
         <v>-1</v>
       </c>
-      <c r="AX94" s="6"/>
+      <c r="AX94" s="8"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:50">
       <c r="A95" s="3">
         <v>91</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>366</v>
+      <c r="B95" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E95" s="3">
         <v>-1</v>
@@ -16562,20 +17180,20 @@
       <c r="AW95" s="3">
         <v>-1</v>
       </c>
-      <c r="AX95" s="6"/>
+      <c r="AX95" s="8"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:50">
       <c r="A96" s="3">
         <v>92</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>369</v>
+      <c r="B96" s="5" t="s">
+        <v>371</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E96" s="3">
         <v>-1</v>
@@ -16712,20 +17330,20 @@
       <c r="AW96" s="3">
         <v>-1</v>
       </c>
-      <c r="AX96" s="6"/>
+      <c r="AX96" s="8"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:50">
       <c r="A97" s="3">
         <v>93</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>372</v>
+      <c r="B97" s="5" t="s">
+        <v>374</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E97" s="3">
         <v>-1</v>
@@ -16862,20 +17480,20 @@
       <c r="AW97" s="3">
         <v>-1</v>
       </c>
-      <c r="AX97" s="6"/>
+      <c r="AX97" s="8"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:50">
       <c r="A98" s="3">
         <v>94</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>375</v>
+      <c r="B98" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E98" s="3">
         <v>-1</v>
@@ -17012,20 +17630,20 @@
       <c r="AW98" s="3">
         <v>-1</v>
       </c>
-      <c r="AX98" s="6"/>
+      <c r="AX98" s="8"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:50">
       <c r="A99" s="3">
         <v>95</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>377</v>
+      <c r="B99" s="5" t="s">
+        <v>379</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E99" s="3">
         <v>92</v>
@@ -17162,20 +17780,20 @@
       <c r="AW99" s="3">
         <v>-1</v>
       </c>
-      <c r="AX99" s="6"/>
+      <c r="AX99" s="8"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:50">
       <c r="A100" s="3">
         <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E100" s="3">
         <v>-1</v>
@@ -17312,20 +17930,20 @@
       <c r="AW100" s="3">
         <v>-1</v>
       </c>
-      <c r="AX100" s="6"/>
+      <c r="AX100" s="8"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:50">
       <c r="A101" s="3">
         <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E101" s="3">
         <v>-1</v>
@@ -17462,20 +18080,20 @@
       <c r="AW101" s="3">
         <v>-1</v>
       </c>
-      <c r="AX101" s="6"/>
+      <c r="AX101" s="8"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:50">
       <c r="A102" s="3">
         <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E102" s="3">
         <v>-1</v>
@@ -17612,20 +18230,20 @@
       <c r="AW102" s="3">
         <v>-1</v>
       </c>
-      <c r="AX102" s="6"/>
+      <c r="AX102" s="8"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:50">
       <c r="A103" s="3">
         <v>99</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E103" s="3">
         <v>-1</v>
@@ -17762,20 +18380,20 @@
       <c r="AW103" s="3">
         <v>-1</v>
       </c>
-      <c r="AX103" s="6"/>
+      <c r="AX103" s="8"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:50">
       <c r="A104" s="3">
         <v>100</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E104" s="3">
         <v>-1</v>
@@ -17912,20 +18530,20 @@
       <c r="AW104" s="3">
         <v>-1</v>
       </c>
-      <c r="AX104" s="6"/>
+      <c r="AX104" s="8"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:50">
       <c r="A105" s="3">
         <v>101</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E105" s="3">
         <v>-1</v>
@@ -18062,20 +18680,20 @@
       <c r="AW105" s="3">
         <v>-1</v>
       </c>
-      <c r="AX105" s="6"/>
+      <c r="AX105" s="8"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:50">
       <c r="A106" s="3">
         <v>102</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E106" s="3">
         <v>-1</v>
@@ -18212,20 +18830,20 @@
       <c r="AW106" s="3">
         <v>-1</v>
       </c>
-      <c r="AX106" s="6"/>
+      <c r="AX106" s="8"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:50">
       <c r="A107" s="3">
         <v>103</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E107" s="3">
         <v>-1</v>
@@ -18362,20 +18980,20 @@
       <c r="AW107" s="3">
         <v>-1</v>
       </c>
-      <c r="AX107" s="6"/>
+      <c r="AX107" s="8"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:50">
       <c r="A108" s="3">
         <v>104</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E108" s="3">
         <v>-1</v>
@@ -18512,20 +19130,20 @@
       <c r="AW108" s="3">
         <v>-1</v>
       </c>
-      <c r="AX108" s="6"/>
+      <c r="AX108" s="8"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:50">
       <c r="A109" s="3">
         <v>105</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E109" s="3">
         <v>-1</v>
@@ -18662,20 +19280,20 @@
       <c r="AW109" s="3">
         <v>-1</v>
       </c>
-      <c r="AX109" s="6"/>
+      <c r="AX109" s="8"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:50">
       <c r="A110" s="3">
         <v>106</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E110" s="3">
         <v>-1</v>
@@ -18812,20 +19430,20 @@
       <c r="AW110" s="3">
         <v>-1</v>
       </c>
-      <c r="AX110" s="6"/>
+      <c r="AX110" s="8"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:50">
       <c r="A111" s="3">
         <v>107</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E111" s="3">
         <v>-1</v>
@@ -18962,20 +19580,20 @@
       <c r="AW111" s="3">
         <v>-1</v>
       </c>
-      <c r="AX111" s="6"/>
+      <c r="AX111" s="8"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:50">
       <c r="A112" s="3">
         <v>108</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="E112" s="3">
         <v>-1</v>
@@ -19112,20 +19730,20 @@
       <c r="AW112" s="3">
         <v>-1</v>
       </c>
-      <c r="AX112" s="6"/>
+      <c r="AX112" s="8"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:50">
       <c r="A113" s="3">
         <v>109</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E113" s="3">
         <v>-1</v>
@@ -19262,20 +19880,20 @@
       <c r="AW113" s="3">
         <v>-1</v>
       </c>
-      <c r="AX113" s="6"/>
+      <c r="AX113" s="8"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:50">
       <c r="A114" s="3">
         <v>110</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E114" s="3">
         <v>-1</v>
@@ -19412,20 +20030,20 @@
       <c r="AW114" s="3">
         <v>-1</v>
       </c>
-      <c r="AX114" s="6"/>
+      <c r="AX114" s="8"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:50">
       <c r="A115" s="3">
         <v>111</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E115" s="3">
         <v>-1</v>
@@ -19562,20 +20180,20 @@
       <c r="AW115" s="3">
         <v>-1</v>
       </c>
-      <c r="AX115" s="6"/>
+      <c r="AX115" s="8"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:50">
       <c r="A116" s="3">
         <v>112</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="E116" s="3">
         <v>-1</v>
@@ -19712,20 +20330,20 @@
       <c r="AW116" s="3">
         <v>-1</v>
       </c>
-      <c r="AX116" s="6"/>
+      <c r="AX116" s="8"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:50">
       <c r="A117" s="3">
         <v>113</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E117" s="3">
         <v>-1</v>
@@ -19862,20 +20480,20 @@
       <c r="AW117" s="3">
         <v>-1</v>
       </c>
-      <c r="AX117" s="6"/>
+      <c r="AX117" s="8"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:50">
       <c r="A118" s="3">
         <v>114</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E118" s="3">
         <v>-1</v>
@@ -20012,20 +20630,20 @@
       <c r="AW118" s="3">
         <v>-1</v>
       </c>
-      <c r="AX118" s="6"/>
+      <c r="AX118" s="8"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:50">
       <c r="A119" s="3">
         <v>115</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E119" s="3">
         <v>-1</v>
@@ -20162,20 +20780,20 @@
       <c r="AW119" s="3">
         <v>-1</v>
       </c>
-      <c r="AX119" s="6"/>
+      <c r="AX119" s="8"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:50">
       <c r="A120" s="3">
         <v>116</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E120" s="3">
         <v>-1</v>
@@ -20312,20 +20930,20 @@
       <c r="AW120" s="3">
         <v>-1</v>
       </c>
-      <c r="AX120" s="6"/>
+      <c r="AX120" s="8"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:50">
       <c r="A121" s="3">
         <v>117</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E121" s="3">
         <v>-1</v>
@@ -20462,20 +21080,20 @@
       <c r="AW121" s="3">
         <v>-1</v>
       </c>
-      <c r="AX121" s="6"/>
+      <c r="AX121" s="8"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:50">
       <c r="A122" s="3">
         <v>118</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E122" s="3">
         <v>-1</v>
@@ -20612,20 +21230,20 @@
       <c r="AW122" s="3">
         <v>-1</v>
       </c>
-      <c r="AX122" s="6"/>
+      <c r="AX122" s="8"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:50">
       <c r="A123" s="3">
         <v>119</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E123" s="3">
         <v>-1</v>
@@ -20762,20 +21380,20 @@
       <c r="AW123" s="3">
         <v>-1</v>
       </c>
-      <c r="AX123" s="6"/>
+      <c r="AX123" s="8"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:50">
       <c r="A124" s="3">
         <v>120</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E124" s="3">
         <v>-1</v>
@@ -20912,20 +21530,20 @@
       <c r="AW124" s="3">
         <v>-1</v>
       </c>
-      <c r="AX124" s="6"/>
+      <c r="AX124" s="8"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:50">
       <c r="A125" s="3">
         <v>121</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E125" s="3">
         <v>-1</v>
@@ -21062,20 +21680,20 @@
       <c r="AW125" s="3">
         <v>-1</v>
       </c>
-      <c r="AX125" s="6"/>
+      <c r="AX125" s="8"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:50">
       <c r="A126" s="3">
         <v>122</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="E126" s="3">
         <v>-1</v>
@@ -21212,20 +21830,20 @@
       <c r="AW126" s="3">
         <v>-1</v>
       </c>
-      <c r="AX126" s="6"/>
+      <c r="AX126" s="8"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:50">
       <c r="A127" s="3">
         <v>123</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E127" s="3">
         <v>-1</v>
@@ -21362,20 +21980,20 @@
       <c r="AW127" s="3">
         <v>-1</v>
       </c>
-      <c r="AX127" s="6"/>
+      <c r="AX127" s="8"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:50">
       <c r="A128" s="3">
         <v>124</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E128" s="3">
         <v>-1</v>
@@ -21512,20 +22130,20 @@
       <c r="AW128" s="3">
         <v>-1</v>
       </c>
-      <c r="AX128" s="6"/>
+      <c r="AX128" s="8"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:50">
       <c r="A129" s="3">
         <v>125</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E129" s="3">
         <v>-1</v>
@@ -21662,20 +22280,20 @@
       <c r="AW129" s="3">
         <v>-1</v>
       </c>
-      <c r="AX129" s="6"/>
+      <c r="AX129" s="8"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:50">
       <c r="A130" s="3">
         <v>126</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E130" s="3">
         <v>-1</v>
@@ -21812,20 +22430,20 @@
       <c r="AW130" s="3">
         <v>-1</v>
       </c>
-      <c r="AX130" s="6"/>
+      <c r="AX130" s="8"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:50">
       <c r="A131" s="3">
         <v>127</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E131" s="3">
         <v>-1</v>
@@ -21962,20 +22580,20 @@
       <c r="AW131" s="3">
         <v>-1</v>
       </c>
-      <c r="AX131" s="6"/>
+      <c r="AX131" s="8"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:50">
       <c r="A132" s="3">
         <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E132" s="3">
         <v>-1</v>
@@ -22112,20 +22730,20 @@
       <c r="AW132" s="3">
         <v>-1</v>
       </c>
-      <c r="AX132" s="6"/>
+      <c r="AX132" s="8"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:50">
       <c r="A133" s="3">
         <v>129</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E133" s="3">
         <v>-1</v>
@@ -22262,20 +22880,20 @@
       <c r="AW133" s="3">
         <v>-1</v>
       </c>
-      <c r="AX133" s="6"/>
+      <c r="AX133" s="8"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:50">
       <c r="A134" s="3">
         <v>130</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E134" s="3">
         <v>-1</v>
@@ -22412,20 +23030,20 @@
       <c r="AW134" s="3">
         <v>-1</v>
       </c>
-      <c r="AX134" s="6"/>
+      <c r="AX134" s="8"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:50">
       <c r="A135" s="3">
         <v>131</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E135" s="3">
         <v>-1</v>
@@ -22562,20 +23180,20 @@
       <c r="AW135" s="3">
         <v>-1</v>
       </c>
-      <c r="AX135" s="6"/>
+      <c r="AX135" s="8"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:50">
       <c r="A136" s="3">
         <v>132</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E136" s="3">
         <v>-1</v>
@@ -22712,20 +23330,20 @@
       <c r="AW136" s="3">
         <v>-1</v>
       </c>
-      <c r="AX136" s="6"/>
+      <c r="AX136" s="8"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:50">
       <c r="A137" s="3">
         <v>133</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E137" s="3">
         <v>-1</v>
@@ -22862,20 +23480,20 @@
       <c r="AW137" s="3">
         <v>-1</v>
       </c>
-      <c r="AX137" s="6"/>
+      <c r="AX137" s="8"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:50">
       <c r="A138" s="3">
         <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E138" s="3">
         <v>-1</v>
@@ -23012,20 +23630,20 @@
       <c r="AW138" s="3">
         <v>-1</v>
       </c>
-      <c r="AX138" s="6"/>
+      <c r="AX138" s="8"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:50">
       <c r="A139" s="3">
         <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E139" s="3">
         <v>-1</v>
@@ -23162,20 +23780,20 @@
       <c r="AW139" s="3">
         <v>-1</v>
       </c>
-      <c r="AX139" s="6"/>
+      <c r="AX139" s="8"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:50">
       <c r="A140" s="3">
         <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E140" s="3">
         <v>-1</v>
@@ -23312,20 +23930,20 @@
       <c r="AW140" s="3">
         <v>-1</v>
       </c>
-      <c r="AX140" s="6"/>
+      <c r="AX140" s="8"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:50">
       <c r="A141" s="3">
         <v>137</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E141" s="3">
         <v>-1</v>
@@ -23462,20 +24080,20 @@
       <c r="AW141" s="3">
         <v>-1</v>
       </c>
-      <c r="AX141" s="6"/>
+      <c r="AX141" s="8"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:50">
       <c r="A142" s="3">
         <v>138</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E142" s="3">
         <v>-1</v>
@@ -23612,20 +24230,20 @@
       <c r="AW142" s="3">
         <v>-1</v>
       </c>
-      <c r="AX142" s="6"/>
+      <c r="AX142" s="8"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:50">
       <c r="A143" s="3">
         <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E143" s="3">
         <v>-1</v>
@@ -23762,20 +24380,20 @@
       <c r="AW143" s="3">
         <v>-1</v>
       </c>
-      <c r="AX143" s="6"/>
+      <c r="AX143" s="8"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:50">
       <c r="A144" s="3">
         <v>140</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E144" s="3">
         <v>-1</v>
@@ -23912,20 +24530,20 @@
       <c r="AW144" s="3">
         <v>-1</v>
       </c>
-      <c r="AX144" s="6"/>
+      <c r="AX144" s="8"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:50">
       <c r="A145" s="3">
         <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E145" s="3">
         <v>-1</v>
@@ -24062,20 +24680,20 @@
       <c r="AW145" s="3">
         <v>-1</v>
       </c>
-      <c r="AX145" s="6"/>
+      <c r="AX145" s="8"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:50">
       <c r="A146" s="3">
         <v>142</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E146" s="3">
         <v>-1</v>
@@ -24212,20 +24830,20 @@
       <c r="AW146" s="3">
         <v>-1</v>
       </c>
-      <c r="AX146" s="6"/>
+      <c r="AX146" s="8"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:50">
       <c r="A147" s="3">
         <v>143</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E147" s="3">
         <v>-1</v>
@@ -24362,20 +24980,20 @@
       <c r="AW147" s="3">
         <v>-1</v>
       </c>
-      <c r="AX147" s="6"/>
+      <c r="AX147" s="8"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:50">
       <c r="A148" s="3">
         <v>144</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E148" s="3">
         <v>-1</v>
@@ -24512,21 +25130,21 @@
       <c r="AW148" s="3">
         <v>-1</v>
       </c>
-      <c r="AX148" s="6"/>
+      <c r="AX148" s="8"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:50">
       <c r="A149" s="3">
         <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="E149" s="3">
         <v>-1</v>
       </c>
@@ -24662,20 +25280,20 @@
       <c r="AW149" s="3">
         <v>-1</v>
       </c>
-      <c r="AX149" s="6"/>
+      <c r="AX149" s="8"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:50">
       <c r="A150" s="3">
         <v>146</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E150" s="3">
         <v>-1</v>
@@ -24812,20 +25430,20 @@
       <c r="AW150" s="3">
         <v>-1</v>
       </c>
-      <c r="AX150" s="6"/>
+      <c r="AX150" s="8"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:50">
       <c r="A151" s="3">
         <v>147</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E151" s="3">
         <v>-1</v>
@@ -24962,20 +25580,20 @@
       <c r="AW151" s="3">
         <v>-1</v>
       </c>
-      <c r="AX151" s="6"/>
+      <c r="AX151" s="8"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:50">
       <c r="A152" s="3">
         <v>148</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E152" s="3">
         <v>-1</v>
@@ -25112,20 +25730,20 @@
       <c r="AW152" s="3">
         <v>-1</v>
       </c>
-      <c r="AX152" s="6"/>
+      <c r="AX152" s="8"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:50">
       <c r="A153" s="3">
         <v>149</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E153" s="3">
         <v>-1</v>
@@ -25262,20 +25880,20 @@
       <c r="AW153" s="3">
         <v>-1</v>
       </c>
-      <c r="AX153" s="6"/>
+      <c r="AX153" s="8"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:50">
       <c r="A154" s="3">
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E154" s="3">
         <v>-1</v>
@@ -25412,20 +26030,20 @@
       <c r="AW154" s="3">
         <v>-1</v>
       </c>
-      <c r="AX154" s="6"/>
+      <c r="AX154" s="8"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:50">
       <c r="A155" s="3">
         <v>151</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E155" s="3">
         <v>-1</v>
@@ -25562,20 +26180,20 @@
       <c r="AW155" s="3">
         <v>-1</v>
       </c>
-      <c r="AX155" s="6"/>
+      <c r="AX155" s="8"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:50">
       <c r="A156" s="3">
         <v>152</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E156" s="3">
         <v>-1</v>
@@ -25712,20 +26330,20 @@
       <c r="AW156" s="3">
         <v>-1</v>
       </c>
-      <c r="AX156" s="6"/>
+      <c r="AX156" s="8"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:50">
       <c r="A157" s="3">
         <v>153</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E157" s="3">
         <v>-1</v>
@@ -25862,20 +26480,20 @@
       <c r="AW157" s="3">
         <v>-1</v>
       </c>
-      <c r="AX157" s="6"/>
+      <c r="AX157" s="8"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:50">
       <c r="A158" s="3">
         <v>154</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E158" s="3">
         <v>-1</v>
@@ -26012,20 +26630,20 @@
       <c r="AW158" s="3">
         <v>-1</v>
       </c>
-      <c r="AX158" s="6"/>
+      <c r="AX158" s="8"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:50">
       <c r="A159" s="3">
         <v>155</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E159" s="3">
         <v>-1</v>
@@ -26162,20 +26780,20 @@
       <c r="AW159" s="3">
         <v>-1</v>
       </c>
-      <c r="AX159" s="6"/>
+      <c r="AX159" s="8"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:50">
       <c r="A160" s="3">
         <v>156</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E160" s="3">
         <v>-1</v>
@@ -26312,20 +26930,20 @@
       <c r="AW160" s="3">
         <v>-1</v>
       </c>
-      <c r="AX160" s="6"/>
+      <c r="AX160" s="8"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:50">
       <c r="A161" s="3">
         <v>157</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E161" s="3">
         <v>-1</v>
@@ -26462,20 +27080,20 @@
       <c r="AW161" s="3">
         <v>-1</v>
       </c>
-      <c r="AX161" s="6"/>
+      <c r="AX161" s="8"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:50">
       <c r="A162" s="3">
         <v>158</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E162" s="3">
         <v>-1</v>
@@ -26612,20 +27230,20 @@
       <c r="AW162" s="3">
         <v>-1</v>
       </c>
-      <c r="AX162" s="6"/>
+      <c r="AX162" s="8"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:50">
       <c r="A163" s="3">
         <v>159</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E163" s="3">
         <v>-1</v>
@@ -26762,20 +27380,20 @@
       <c r="AW163" s="3">
         <v>-1</v>
       </c>
-      <c r="AX163" s="6"/>
+      <c r="AX163" s="8"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:50">
       <c r="A164" s="3">
         <v>160</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E164" s="3">
         <v>-1</v>
@@ -26912,20 +27530,20 @@
       <c r="AW164" s="3">
         <v>-1</v>
       </c>
-      <c r="AX164" s="6"/>
+      <c r="AX164" s="8"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:50">
       <c r="A165" s="3">
         <v>161</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E165" s="3">
         <v>-1</v>
@@ -27062,20 +27680,20 @@
       <c r="AW165" s="3">
         <v>-1</v>
       </c>
-      <c r="AX165" s="6"/>
+      <c r="AX165" s="8"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:50">
       <c r="A166" s="3">
         <v>162</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E166" s="3">
         <v>-1</v>
@@ -27212,20 +27830,20 @@
       <c r="AW166" s="3">
         <v>-1</v>
       </c>
-      <c r="AX166" s="6"/>
+      <c r="AX166" s="8"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:50">
       <c r="A167" s="3">
         <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E167" s="3">
         <v>-1</v>
@@ -27362,20 +27980,20 @@
       <c r="AW167" s="3">
         <v>-1</v>
       </c>
-      <c r="AX167" s="6"/>
+      <c r="AX167" s="8"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:50">
       <c r="A168" s="3">
         <v>164</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E168" s="3">
         <v>-1</v>
@@ -27512,20 +28130,20 @@
       <c r="AW168" s="3">
         <v>-1</v>
       </c>
-      <c r="AX168" s="6"/>
+      <c r="AX168" s="8"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:50">
       <c r="A169" s="3">
         <v>165</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E169" s="3">
         <v>-1</v>
@@ -27662,20 +28280,20 @@
       <c r="AW169" s="3">
         <v>-1</v>
       </c>
-      <c r="AX169" s="6"/>
+      <c r="AX169" s="8"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:50">
       <c r="A170" s="3">
         <v>166</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E170" s="3">
         <v>-1</v>
@@ -27812,20 +28430,20 @@
       <c r="AW170" s="3">
         <v>-1</v>
       </c>
-      <c r="AX170" s="6"/>
+      <c r="AX170" s="8"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:50">
       <c r="A171" s="3">
         <v>167</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E171" s="3">
         <v>-1</v>
@@ -27962,21 +28580,21 @@
       <c r="AW171" s="3">
         <v>-1</v>
       </c>
-      <c r="AX171" s="6"/>
+      <c r="AX171" s="8"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:50">
       <c r="A172" s="3">
         <v>168</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="E172" s="3">
         <v>-1</v>
       </c>
@@ -28112,20 +28730,20 @@
       <c r="AW172" s="3">
         <v>-1</v>
       </c>
-      <c r="AX172" s="6"/>
+      <c r="AX172" s="8"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:50">
       <c r="A173" s="3">
         <v>169</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E173" s="3">
         <v>-1</v>
@@ -28262,20 +28880,20 @@
       <c r="AW173" s="3">
         <v>-1</v>
       </c>
-      <c r="AX173" s="6"/>
+      <c r="AX173" s="8"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:50">
       <c r="A174" s="3">
         <v>170</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E174" s="3">
         <v>-1</v>
@@ -28412,20 +29030,20 @@
       <c r="AW174" s="3">
         <v>-1</v>
       </c>
-      <c r="AX174" s="6"/>
+      <c r="AX174" s="8"/>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:50">
       <c r="A175" s="3">
         <v>171</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E175" s="3">
         <v>-1</v>
@@ -28562,20 +29180,20 @@
       <c r="AW175" s="3">
         <v>-1</v>
       </c>
-      <c r="AX175" s="6"/>
+      <c r="AX175" s="8"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:50">
       <c r="A176" s="3">
         <v>172</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E176" s="3">
         <v>-1</v>
@@ -28712,20 +29330,20 @@
       <c r="AW176" s="3">
         <v>-1</v>
       </c>
-      <c r="AX176" s="6"/>
+      <c r="AX176" s="8"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:50">
       <c r="A177" s="3">
         <v>173</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E177" s="3">
         <v>-1</v>
@@ -28862,20 +29480,20 @@
       <c r="AW177" s="3">
         <v>-1</v>
       </c>
-      <c r="AX177" s="6"/>
+      <c r="AX177" s="8"/>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:50">
       <c r="A178" s="3">
         <v>174</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E178" s="3">
         <v>-1</v>
@@ -29012,20 +29630,20 @@
       <c r="AW178" s="3">
         <v>-1</v>
       </c>
-      <c r="AX178" s="6"/>
+      <c r="AX178" s="8"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:50">
       <c r="A179" s="3">
         <v>175</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E179" s="3">
         <v>-1</v>
@@ -29162,20 +29780,20 @@
       <c r="AW179" s="3">
         <v>-1</v>
       </c>
-      <c r="AX179" s="6"/>
+      <c r="AX179" s="8"/>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:50">
       <c r="A180" s="3">
         <v>176</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E180" s="3">
         <v>-1</v>
@@ -29312,20 +29930,20 @@
       <c r="AW180" s="3">
         <v>-1</v>
       </c>
-      <c r="AX180" s="6"/>
+      <c r="AX180" s="8"/>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:50">
       <c r="A181" s="3">
         <v>177</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E181" s="3">
         <v>-1</v>
@@ -29462,20 +30080,20 @@
       <c r="AW181" s="3">
         <v>-1</v>
       </c>
-      <c r="AX181" s="6"/>
+      <c r="AX181" s="8"/>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:50">
       <c r="A182" s="3">
         <v>178</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E182" s="3">
         <v>-1</v>
@@ -29612,20 +30230,20 @@
       <c r="AW182" s="3">
         <v>-1</v>
       </c>
-      <c r="AX182" s="6"/>
+      <c r="AX182" s="8"/>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:50">
       <c r="A183" s="3">
         <v>179</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E183" s="3">
         <v>-1</v>
@@ -29762,20 +30380,20 @@
       <c r="AW183" s="3">
         <v>-1</v>
       </c>
-      <c r="AX183" s="6"/>
+      <c r="AX183" s="8"/>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:50">
       <c r="A184" s="3">
         <v>180</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E184" s="3">
         <v>-1</v>
@@ -29912,20 +30530,20 @@
       <c r="AW184" s="3">
         <v>-1</v>
       </c>
-      <c r="AX184" s="6"/>
+      <c r="AX184" s="8"/>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:50">
       <c r="A185" s="3">
         <v>181</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E185" s="3">
         <v>-1</v>
@@ -30062,20 +30680,20 @@
       <c r="AW185" s="3">
         <v>-1</v>
       </c>
-      <c r="AX185" s="6"/>
+      <c r="AX185" s="8"/>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:50">
       <c r="A186" s="3">
         <v>182</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E186" s="3">
         <v>-1</v>
@@ -30212,20 +30830,20 @@
       <c r="AW186" s="3">
         <v>-1</v>
       </c>
-      <c r="AX186" s="6"/>
+      <c r="AX186" s="8"/>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:50">
       <c r="A187" s="3">
         <v>183</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E187" s="3">
         <v>-1</v>
@@ -30362,20 +30980,20 @@
       <c r="AW187" s="3">
         <v>-1</v>
       </c>
-      <c r="AX187" s="6"/>
+      <c r="AX187" s="8"/>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:50">
       <c r="A188" s="3">
         <v>184</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E188" s="3">
         <v>-1</v>
@@ -30512,20 +31130,20 @@
       <c r="AW188" s="3">
         <v>-1</v>
       </c>
-      <c r="AX188" s="6"/>
+      <c r="AX188" s="8"/>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:50">
       <c r="A189" s="3">
         <v>185</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E189" s="3">
         <v>-1</v>
@@ -30662,20 +31280,20 @@
       <c r="AW189" s="3">
         <v>-1</v>
       </c>
-      <c r="AX189" s="6"/>
+      <c r="AX189" s="8"/>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:50">
       <c r="A190" s="3">
         <v>186</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E190" s="3">
         <v>-1</v>
@@ -30812,20 +31430,20 @@
       <c r="AW190" s="3">
         <v>-1</v>
       </c>
-      <c r="AX190" s="6"/>
+      <c r="AX190" s="8"/>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:50">
       <c r="A191" s="3">
         <v>187</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E191" s="3">
         <v>-1</v>
@@ -30962,21 +31580,21 @@
       <c r="AW191" s="3">
         <v>-1</v>
       </c>
-      <c r="AX191" s="6"/>
+      <c r="AX191" s="8"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:50">
       <c r="A192" s="3">
         <v>188</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="E192" s="3">
         <v>-1</v>
       </c>
@@ -31112,20 +31730,20 @@
       <c r="AW192" s="3">
         <v>-1</v>
       </c>
-      <c r="AX192" s="6"/>
+      <c r="AX192" s="8"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:50">
       <c r="A193" s="3">
         <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E193" s="3">
         <v>-1</v>
@@ -31262,20 +31880,20 @@
       <c r="AW193" s="3">
         <v>-1</v>
       </c>
-      <c r="AX193" s="6"/>
+      <c r="AX193" s="8"/>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:50">
       <c r="A194" s="3">
         <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E194" s="3">
         <v>-1</v>
@@ -31412,20 +32030,20 @@
       <c r="AW194" s="3">
         <v>-1</v>
       </c>
-      <c r="AX194" s="6"/>
+      <c r="AX194" s="8"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:50">
       <c r="A195" s="3">
         <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E195" s="3">
         <v>-1</v>
@@ -31562,20 +32180,20 @@
       <c r="AW195" s="3">
         <v>-1</v>
       </c>
-      <c r="AX195" s="6"/>
+      <c r="AX195" s="8"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:50">
       <c r="A196" s="3">
         <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E196" s="3">
         <v>-1</v>
@@ -31712,20 +32330,20 @@
       <c r="AW196" s="3">
         <v>-1</v>
       </c>
-      <c r="AX196" s="6"/>
+      <c r="AX196" s="8"/>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:50">
       <c r="A197" s="3">
         <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E197" s="3">
         <v>-1</v>
@@ -31862,20 +32480,20 @@
       <c r="AW197" s="3">
         <v>-1</v>
       </c>
-      <c r="AX197" s="6"/>
+      <c r="AX197" s="8"/>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:50">
       <c r="A198" s="3">
         <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E198" s="3">
         <v>-1</v>
@@ -32012,20 +32630,20 @@
       <c r="AW198" s="3">
         <v>-1</v>
       </c>
-      <c r="AX198" s="6"/>
+      <c r="AX198" s="8"/>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:50">
       <c r="A199" s="3">
         <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E199" s="3">
         <v>-1</v>
@@ -32162,20 +32780,20 @@
       <c r="AW199" s="3">
         <v>-1</v>
       </c>
-      <c r="AX199" s="6"/>
+      <c r="AX199" s="8"/>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:50">
       <c r="A200" s="3">
         <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E200" s="3">
         <v>-1</v>
@@ -32312,20 +32930,20 @@
       <c r="AW200" s="3">
         <v>-1</v>
       </c>
-      <c r="AX200" s="6"/>
+      <c r="AX200" s="8"/>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:50">
       <c r="A201" s="3">
         <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E201" s="3">
         <v>-1</v>
@@ -32462,20 +33080,20 @@
       <c r="AW201" s="3">
         <v>-1</v>
       </c>
-      <c r="AX201" s="6"/>
+      <c r="AX201" s="8"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:50">
       <c r="A202" s="3">
         <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E202" s="3">
         <v>-1</v>
@@ -32612,20 +33230,20 @@
       <c r="AW202" s="3">
         <v>-1</v>
       </c>
-      <c r="AX202" s="6"/>
+      <c r="AX202" s="8"/>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:50">
       <c r="A203" s="3">
         <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E203" s="3">
         <v>-1</v>
@@ -32762,11 +33380,11 @@
       <c r="AW203" s="3">
         <v>-1</v>
       </c>
-      <c r="AX203" s="6"/>
+      <c r="AX203" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/物品.xlsx
@@ -1153,7 +1153,7 @@
     <t>至高无上之武功宝典</t>
   </si>
   <si>
-    <t>纯阳内功谱</t>
+    <t>九阳无极功法</t>
   </si>
   <si>
     <t>飞蝗石</t>
@@ -1990,7 +1990,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2001,12 +2001,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2484,31 +2478,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2517,19 +2520,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2541,107 +2538,104 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2654,7 +2648,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -3054,7 +3047,7 @@
   <dimension ref="A1:AX203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
@@ -3364,7 +3357,7 @@
       <c r="AW3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AX3" s="7" t="s">
+      <c r="AX3" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3372,7 +3365,7 @@
       <c r="A4" s="3">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -3516,7 +3509,7 @@
       <c r="AW4" s="3">
         <v>-1</v>
       </c>
-      <c r="AX4" s="8"/>
+      <c r="AX4" s="7"/>
     </row>
     <row r="5" spans="1:50">
       <c r="A5" s="3">
@@ -3666,7 +3659,7 @@
       <c r="AW5" s="3">
         <v>-1</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50">
       <c r="A6" s="3">
@@ -3816,7 +3809,7 @@
       <c r="AW6" s="3">
         <v>-1</v>
       </c>
-      <c r="AX6" s="8"/>
+      <c r="AX6" s="7"/>
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="3">
@@ -3966,7 +3959,7 @@
       <c r="AW7" s="3">
         <v>-1</v>
       </c>
-      <c r="AX7" s="8"/>
+      <c r="AX7" s="7"/>
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="3">
@@ -4116,7 +4109,7 @@
       <c r="AW8" s="3">
         <v>-1</v>
       </c>
-      <c r="AX8" s="8"/>
+      <c r="AX8" s="7"/>
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="3">
@@ -4266,7 +4259,7 @@
       <c r="AW9" s="3">
         <v>-1</v>
       </c>
-      <c r="AX9" s="8"/>
+      <c r="AX9" s="7"/>
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="3">
@@ -4416,7 +4409,7 @@
       <c r="AW10" s="3">
         <v>-1</v>
       </c>
-      <c r="AX10" s="8"/>
+      <c r="AX10" s="7"/>
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="3">
@@ -4566,7 +4559,7 @@
       <c r="AW11" s="3">
         <v>-1</v>
       </c>
-      <c r="AX11" s="8"/>
+      <c r="AX11" s="7"/>
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="3">
@@ -4716,7 +4709,7 @@
       <c r="AW12" s="3">
         <v>-1</v>
       </c>
-      <c r="AX12" s="8"/>
+      <c r="AX12" s="7"/>
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="3">
@@ -4866,7 +4859,7 @@
       <c r="AW13" s="3">
         <v>-1</v>
       </c>
-      <c r="AX13" s="8"/>
+      <c r="AX13" s="7"/>
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="3">
@@ -5016,13 +5009,13 @@
       <c r="AW14" s="3">
         <v>-1</v>
       </c>
-      <c r="AX14" s="8"/>
+      <c r="AX14" s="7"/>
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -5166,7 +5159,7 @@
       <c r="AW15" s="3">
         <v>-1</v>
       </c>
-      <c r="AX15" s="8"/>
+      <c r="AX15" s="7"/>
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="3">
@@ -5316,7 +5309,7 @@
       <c r="AW16" s="3">
         <v>-1</v>
       </c>
-      <c r="AX16" s="8"/>
+      <c r="AX16" s="7"/>
     </row>
     <row r="17" spans="1:50">
       <c r="A17" s="3">
@@ -5466,7 +5459,7 @@
       <c r="AW17" s="3">
         <v>-1</v>
       </c>
-      <c r="AX17" s="8"/>
+      <c r="AX17" s="7"/>
     </row>
     <row r="18" spans="1:50">
       <c r="A18" s="3">
@@ -5616,7 +5609,7 @@
       <c r="AW18" s="3">
         <v>-1</v>
       </c>
-      <c r="AX18" s="8"/>
+      <c r="AX18" s="7"/>
     </row>
     <row r="19" spans="1:50">
       <c r="A19" s="3">
@@ -5766,7 +5759,7 @@
       <c r="AW19" s="3">
         <v>-1</v>
       </c>
-      <c r="AX19" s="8"/>
+      <c r="AX19" s="7"/>
     </row>
     <row r="20" spans="1:50">
       <c r="A20" s="3">
@@ -5916,7 +5909,7 @@
       <c r="AW20" s="3">
         <v>-1</v>
       </c>
-      <c r="AX20" s="8"/>
+      <c r="AX20" s="7"/>
     </row>
     <row r="21" spans="1:50">
       <c r="A21" s="3">
@@ -6066,7 +6059,7 @@
       <c r="AW21" s="3">
         <v>-1</v>
       </c>
-      <c r="AX21" s="8"/>
+      <c r="AX21" s="7"/>
     </row>
     <row r="22" spans="1:50">
       <c r="A22" s="3">
@@ -6216,7 +6209,7 @@
       <c r="AW22" s="3">
         <v>-1</v>
       </c>
-      <c r="AX22" s="8"/>
+      <c r="AX22" s="7"/>
     </row>
     <row r="23" spans="1:50">
       <c r="A23" s="3">
@@ -6366,7 +6359,7 @@
       <c r="AW23" s="3">
         <v>-1</v>
       </c>
-      <c r="AX23" s="8"/>
+      <c r="AX23" s="7"/>
     </row>
     <row r="24" spans="1:50">
       <c r="A24" s="3">
@@ -6516,7 +6509,7 @@
       <c r="AW24" s="3">
         <v>-1</v>
       </c>
-      <c r="AX24" s="8"/>
+      <c r="AX24" s="7"/>
     </row>
     <row r="25" spans="1:50">
       <c r="A25" s="3">
@@ -6666,7 +6659,7 @@
       <c r="AW25" s="3">
         <v>-1</v>
       </c>
-      <c r="AX25" s="8"/>
+      <c r="AX25" s="7"/>
     </row>
     <row r="26" spans="1:50">
       <c r="A26" s="3">
@@ -6816,7 +6809,7 @@
       <c r="AW26" s="3">
         <v>-1</v>
       </c>
-      <c r="AX26" s="8"/>
+      <c r="AX26" s="7"/>
     </row>
     <row r="27" spans="1:50">
       <c r="A27" s="3">
@@ -6966,7 +6959,7 @@
       <c r="AW27" s="3">
         <v>-1</v>
       </c>
-      <c r="AX27" s="8"/>
+      <c r="AX27" s="7"/>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="3">
@@ -7116,7 +7109,7 @@
       <c r="AW28" s="3">
         <v>-1</v>
       </c>
-      <c r="AX28" s="8"/>
+      <c r="AX28" s="7"/>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="3">
@@ -7266,7 +7259,7 @@
       <c r="AW29" s="3">
         <v>-1</v>
       </c>
-      <c r="AX29" s="8"/>
+      <c r="AX29" s="7"/>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="3">
@@ -7416,7 +7409,7 @@
       <c r="AW30" s="3">
         <v>-1</v>
       </c>
-      <c r="AX30" s="8"/>
+      <c r="AX30" s="7"/>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="3">
@@ -7566,7 +7559,7 @@
       <c r="AW31" s="3">
         <v>-1</v>
       </c>
-      <c r="AX31" s="8"/>
+      <c r="AX31" s="7"/>
     </row>
     <row r="32" spans="1:50">
       <c r="A32" s="3">
@@ -7716,7 +7709,7 @@
       <c r="AW32" s="3">
         <v>-1</v>
       </c>
-      <c r="AX32" s="8"/>
+      <c r="AX32" s="7"/>
     </row>
     <row r="33" spans="1:50">
       <c r="A33" s="3">
@@ -7866,7 +7859,7 @@
       <c r="AW33" s="3">
         <v>-1</v>
       </c>
-      <c r="AX33" s="8"/>
+      <c r="AX33" s="7"/>
     </row>
     <row r="34" spans="1:50">
       <c r="A34" s="3">
@@ -8016,7 +8009,7 @@
       <c r="AW34" s="3">
         <v>-1</v>
       </c>
-      <c r="AX34" s="8"/>
+      <c r="AX34" s="7"/>
     </row>
     <row r="35" spans="1:50">
       <c r="A35" s="3">
@@ -8166,7 +8159,7 @@
       <c r="AW35" s="3">
         <v>-1</v>
       </c>
-      <c r="AX35" s="8"/>
+      <c r="AX35" s="7"/>
     </row>
     <row r="36" spans="1:50">
       <c r="A36" s="3">
@@ -8316,7 +8309,7 @@
       <c r="AW36" s="3">
         <v>-1</v>
       </c>
-      <c r="AX36" s="8"/>
+      <c r="AX36" s="7"/>
     </row>
     <row r="37" spans="1:50">
       <c r="A37" s="3">
@@ -8466,13 +8459,13 @@
       <c r="AW37" s="3">
         <v>-1</v>
       </c>
-      <c r="AX37" s="8"/>
+      <c r="AX37" s="7"/>
     </row>
     <row r="38" spans="1:50">
       <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -8616,7 +8609,7 @@
       <c r="AW38" s="3">
         <v>-1</v>
       </c>
-      <c r="AX38" s="8"/>
+      <c r="AX38" s="7"/>
     </row>
     <row r="39" spans="1:50">
       <c r="A39" s="3">
@@ -8766,7 +8759,7 @@
       <c r="AW39" s="3">
         <v>-1</v>
       </c>
-      <c r="AX39" s="8"/>
+      <c r="AX39" s="7"/>
     </row>
     <row r="40" spans="1:50">
       <c r="A40" s="3">
@@ -8916,7 +8909,7 @@
       <c r="AW40" s="3">
         <v>-1</v>
       </c>
-      <c r="AX40" s="8"/>
+      <c r="AX40" s="7"/>
     </row>
     <row r="41" spans="1:50">
       <c r="A41" s="3">
@@ -9066,13 +9059,13 @@
       <c r="AW41" s="3">
         <v>-1</v>
       </c>
-      <c r="AX41" s="8"/>
+      <c r="AX41" s="7"/>
     </row>
     <row r="42" spans="1:50">
       <c r="A42" s="3">
         <v>38</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>209</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -9216,7 +9209,7 @@
       <c r="AW42" s="3">
         <v>-1</v>
       </c>
-      <c r="AX42" s="8"/>
+      <c r="AX42" s="7"/>
     </row>
     <row r="43" spans="1:50">
       <c r="A43" s="3">
@@ -9366,13 +9359,13 @@
       <c r="AW43" s="3">
         <v>-1</v>
       </c>
-      <c r="AX43" s="8"/>
+      <c r="AX43" s="7"/>
     </row>
     <row r="44" spans="1:50">
       <c r="A44" s="3">
         <v>40</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>215</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -9516,13 +9509,13 @@
       <c r="AW44" s="3">
         <v>-1</v>
       </c>
-      <c r="AX44" s="8"/>
+      <c r="AX44" s="7"/>
     </row>
     <row r="45" spans="1:50">
       <c r="A45" s="3">
         <v>41</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>217</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -9666,13 +9659,13 @@
       <c r="AW45" s="3">
         <v>-1</v>
       </c>
-      <c r="AX45" s="8"/>
+      <c r="AX45" s="7"/>
     </row>
     <row r="46" spans="1:50">
       <c r="A46" s="3">
         <v>42</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>220</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -9816,13 +9809,13 @@
       <c r="AW46" s="3">
         <v>-1</v>
       </c>
-      <c r="AX46" s="8"/>
+      <c r="AX46" s="7"/>
     </row>
     <row r="47" spans="1:50">
       <c r="A47" s="3">
         <v>43</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -9966,13 +9959,13 @@
       <c r="AW47" s="3">
         <v>-1</v>
       </c>
-      <c r="AX47" s="8"/>
+      <c r="AX47" s="7"/>
     </row>
     <row r="48" spans="1:50">
       <c r="A48" s="3">
         <v>44</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -10116,13 +10109,13 @@
       <c r="AW48" s="3">
         <v>-1</v>
       </c>
-      <c r="AX48" s="8"/>
+      <c r="AX48" s="7"/>
     </row>
     <row r="49" spans="1:50">
       <c r="A49" s="3">
         <v>45</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -10266,13 +10259,13 @@
       <c r="AW49" s="3">
         <v>-1</v>
       </c>
-      <c r="AX49" s="8"/>
+      <c r="AX49" s="7"/>
     </row>
     <row r="50" spans="1:50">
       <c r="A50" s="3">
         <v>46</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -10416,13 +10409,13 @@
       <c r="AW50" s="3">
         <v>-1</v>
       </c>
-      <c r="AX50" s="8"/>
+      <c r="AX50" s="7"/>
     </row>
     <row r="51" spans="1:50">
       <c r="A51" s="3">
         <v>47</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -10566,13 +10559,13 @@
       <c r="AW51" s="3">
         <v>-1</v>
       </c>
-      <c r="AX51" s="8"/>
+      <c r="AX51" s="7"/>
     </row>
     <row r="52" spans="1:50">
       <c r="A52" s="3">
         <v>48</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -10716,7 +10709,7 @@
       <c r="AW52" s="3">
         <v>171</v>
       </c>
-      <c r="AX52" s="8" t="s">
+      <c r="AX52" s="7" t="s">
         <v>241</v>
       </c>
     </row>
@@ -10724,7 +10717,7 @@
       <c r="A53" s="3">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -10868,7 +10861,7 @@
       <c r="AW53" s="3">
         <v>171</v>
       </c>
-      <c r="AX53" s="8" t="s">
+      <c r="AX53" s="7" t="s">
         <v>245</v>
       </c>
     </row>
@@ -10876,7 +10869,7 @@
       <c r="A54" s="3">
         <v>50</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -11020,7 +11013,7 @@
       <c r="AW54" s="3">
         <v>171</v>
       </c>
-      <c r="AX54" s="8" t="s">
+      <c r="AX54" s="7" t="s">
         <v>249</v>
       </c>
     </row>
@@ -11028,7 +11021,7 @@
       <c r="A55" s="3">
         <v>51</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -11172,7 +11165,7 @@
       <c r="AW55" s="3">
         <v>171</v>
       </c>
-      <c r="AX55" s="8" t="s">
+      <c r="AX55" s="7" t="s">
         <v>253</v>
       </c>
     </row>
@@ -11324,7 +11317,7 @@
       <c r="AW56" s="3">
         <v>171</v>
       </c>
-      <c r="AX56" s="8" t="s">
+      <c r="AX56" s="7" t="s">
         <v>257</v>
       </c>
     </row>
@@ -11332,7 +11325,7 @@
       <c r="A57" s="3">
         <v>53</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>258</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -11476,7 +11469,7 @@
       <c r="AW57" s="3">
         <v>171</v>
       </c>
-      <c r="AX57" s="8" t="s">
+      <c r="AX57" s="7" t="s">
         <v>261</v>
       </c>
     </row>
@@ -11484,7 +11477,7 @@
       <c r="A58" s="3">
         <v>54</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>262</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -11628,13 +11621,13 @@
       <c r="AW58" s="3">
         <v>-1</v>
       </c>
-      <c r="AX58" s="8"/>
+      <c r="AX58" s="7"/>
     </row>
     <row r="59" spans="1:50">
       <c r="A59" s="3">
         <v>55</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>265</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -11778,13 +11771,13 @@
       <c r="AW59" s="3">
         <v>-1</v>
       </c>
-      <c r="AX59" s="8"/>
+      <c r="AX59" s="7"/>
     </row>
     <row r="60" spans="1:50">
       <c r="A60" s="3">
         <v>56</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>268</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -11928,13 +11921,13 @@
       <c r="AW60" s="3">
         <v>-1</v>
       </c>
-      <c r="AX60" s="8"/>
+      <c r="AX60" s="7"/>
     </row>
     <row r="61" spans="1:50">
       <c r="A61" s="3">
         <v>57</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -12078,7 +12071,7 @@
       <c r="AW61" s="3">
         <v>-1</v>
       </c>
-      <c r="AX61" s="8"/>
+      <c r="AX61" s="7"/>
     </row>
     <row r="62" spans="1:50">
       <c r="A62" s="3">
@@ -12228,13 +12221,13 @@
       <c r="AW62" s="3">
         <v>-1</v>
       </c>
-      <c r="AX62" s="8"/>
+      <c r="AX62" s="7"/>
     </row>
     <row r="63" spans="1:50">
       <c r="A63" s="3">
         <v>59</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -12378,13 +12371,13 @@
       <c r="AW63" s="3">
         <v>-1</v>
       </c>
-      <c r="AX63" s="8"/>
+      <c r="AX63" s="7"/>
     </row>
     <row r="64" spans="1:50">
       <c r="A64" s="3">
         <v>60</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>279</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -12528,13 +12521,13 @@
       <c r="AW64" s="3">
         <v>-1</v>
       </c>
-      <c r="AX64" s="8"/>
+      <c r="AX64" s="7"/>
     </row>
     <row r="65" spans="1:50">
       <c r="A65" s="3">
         <v>61</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -12678,13 +12671,13 @@
       <c r="AW65" s="3">
         <v>-1</v>
       </c>
-      <c r="AX65" s="8"/>
+      <c r="AX65" s="7"/>
     </row>
     <row r="66" spans="1:50">
       <c r="A66" s="3">
         <v>62</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -12828,13 +12821,13 @@
       <c r="AW66" s="3">
         <v>-1</v>
       </c>
-      <c r="AX66" s="8"/>
+      <c r="AX66" s="7"/>
     </row>
     <row r="67" spans="1:50">
       <c r="A67" s="3">
         <v>63</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -12978,13 +12971,13 @@
       <c r="AW67" s="3">
         <v>-1</v>
       </c>
-      <c r="AX67" s="8"/>
+      <c r="AX67" s="7"/>
     </row>
     <row r="68" spans="1:50">
       <c r="A68" s="3">
         <v>64</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -13128,13 +13121,13 @@
       <c r="AW68" s="3">
         <v>-1</v>
       </c>
-      <c r="AX68" s="8"/>
+      <c r="AX68" s="7"/>
     </row>
     <row r="69" spans="1:50">
       <c r="A69" s="3">
         <v>65</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -13278,13 +13271,13 @@
       <c r="AW69" s="3">
         <v>-1</v>
       </c>
-      <c r="AX69" s="8"/>
+      <c r="AX69" s="7"/>
     </row>
     <row r="70" spans="1:50">
       <c r="A70" s="3">
         <v>66</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -13428,13 +13421,13 @@
       <c r="AW70" s="3">
         <v>-1</v>
       </c>
-      <c r="AX70" s="8"/>
+      <c r="AX70" s="7"/>
     </row>
     <row r="71" spans="1:50">
       <c r="A71" s="3">
         <v>67</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>300</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -13578,13 +13571,13 @@
       <c r="AW71" s="3">
         <v>-1</v>
       </c>
-      <c r="AX71" s="8"/>
+      <c r="AX71" s="7"/>
     </row>
     <row r="72" spans="1:50">
       <c r="A72" s="3">
         <v>68</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>303</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -13728,13 +13721,13 @@
       <c r="AW72" s="3">
         <v>-1</v>
       </c>
-      <c r="AX72" s="8"/>
+      <c r="AX72" s="7"/>
     </row>
     <row r="73" spans="1:50">
       <c r="A73" s="3">
         <v>69</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>306</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -13878,13 +13871,13 @@
       <c r="AW73" s="3">
         <v>-1</v>
       </c>
-      <c r="AX73" s="8"/>
+      <c r="AX73" s="7"/>
     </row>
     <row r="74" spans="1:50">
       <c r="A74" s="3">
         <v>70</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>308</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -14028,7 +14021,7 @@
       <c r="AW74" s="3">
         <v>-1</v>
       </c>
-      <c r="AX74" s="8"/>
+      <c r="AX74" s="7"/>
     </row>
     <row r="75" spans="1:50">
       <c r="A75" s="3">
@@ -14178,13 +14171,13 @@
       <c r="AW75" s="3">
         <v>-1</v>
       </c>
-      <c r="AX75" s="8"/>
+      <c r="AX75" s="7"/>
     </row>
     <row r="76" spans="1:50">
       <c r="A76" s="3">
         <v>72</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>313</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -14328,13 +14321,13 @@
       <c r="AW76" s="3">
         <v>-1</v>
       </c>
-      <c r="AX76" s="8"/>
+      <c r="AX76" s="7"/>
     </row>
     <row r="77" spans="1:50">
       <c r="A77" s="3">
         <v>73</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>316</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -14478,13 +14471,13 @@
       <c r="AW77" s="3">
         <v>-1</v>
       </c>
-      <c r="AX77" s="8"/>
+      <c r="AX77" s="7"/>
     </row>
     <row r="78" spans="1:50">
       <c r="A78" s="3">
         <v>74</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>319</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -14628,7 +14621,7 @@
       <c r="AW78" s="3">
         <v>-1</v>
       </c>
-      <c r="AX78" s="8"/>
+      <c r="AX78" s="7"/>
     </row>
     <row r="79" spans="1:50">
       <c r="A79" s="3">
@@ -14778,7 +14771,7 @@
       <c r="AW79" s="3">
         <v>-1</v>
       </c>
-      <c r="AX79" s="8"/>
+      <c r="AX79" s="7"/>
     </row>
     <row r="80" spans="1:50">
       <c r="A80" s="3">
@@ -14928,13 +14921,13 @@
       <c r="AW80" s="3">
         <v>-1</v>
       </c>
-      <c r="AX80" s="8"/>
+      <c r="AX80" s="7"/>
     </row>
     <row r="81" spans="1:50">
       <c r="A81" s="3">
         <v>77</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -15078,13 +15071,13 @@
       <c r="AW81" s="3">
         <v>-1</v>
       </c>
-      <c r="AX81" s="8"/>
+      <c r="AX81" s="7"/>
     </row>
     <row r="82" spans="1:50">
       <c r="A82" s="3">
         <v>78</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -15228,13 +15221,13 @@
       <c r="AW82" s="3">
         <v>-1</v>
       </c>
-      <c r="AX82" s="8"/>
+      <c r="AX82" s="7"/>
     </row>
     <row r="83" spans="1:50">
       <c r="A83" s="3">
         <v>79</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -15378,13 +15371,13 @@
       <c r="AW83" s="3">
         <v>-1</v>
       </c>
-      <c r="AX83" s="8"/>
+      <c r="AX83" s="7"/>
     </row>
     <row r="84" spans="1:50">
       <c r="A84" s="3">
         <v>80</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>337</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -15528,7 +15521,7 @@
       <c r="AW84" s="3">
         <v>-1</v>
       </c>
-      <c r="AX84" s="8"/>
+      <c r="AX84" s="7"/>
     </row>
     <row r="85" spans="1:50">
       <c r="A85" s="3">
@@ -15678,13 +15671,13 @@
       <c r="AW85" s="3">
         <v>-1</v>
       </c>
-      <c r="AX85" s="8"/>
+      <c r="AX85" s="7"/>
     </row>
     <row r="86" spans="1:50">
       <c r="A86" s="3">
         <v>82</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>343</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -15828,13 +15821,13 @@
       <c r="AW86" s="3">
         <v>-1</v>
       </c>
-      <c r="AX86" s="8"/>
+      <c r="AX86" s="7"/>
     </row>
     <row r="87" spans="1:50">
       <c r="A87" s="3">
         <v>83</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>346</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -15978,13 +15971,13 @@
       <c r="AW87" s="3">
         <v>-1</v>
       </c>
-      <c r="AX87" s="8"/>
+      <c r="AX87" s="7"/>
     </row>
     <row r="88" spans="1:50">
       <c r="A88" s="3">
         <v>84</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -16128,7 +16121,7 @@
       <c r="AW88" s="3">
         <v>-1</v>
       </c>
-      <c r="AX88" s="8"/>
+      <c r="AX88" s="7"/>
     </row>
     <row r="89" spans="1:50">
       <c r="A89" s="3">
@@ -16278,13 +16271,13 @@
       <c r="AW89" s="3">
         <v>-1</v>
       </c>
-      <c r="AX89" s="8"/>
+      <c r="AX89" s="7"/>
     </row>
     <row r="90" spans="1:50">
       <c r="A90" s="3">
         <v>86</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>354</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -16428,13 +16421,13 @@
       <c r="AW90" s="3">
         <v>-1</v>
       </c>
-      <c r="AX90" s="8"/>
+      <c r="AX90" s="7"/>
     </row>
     <row r="91" spans="1:50">
       <c r="A91" s="3">
         <v>87</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>356</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -16578,13 +16571,13 @@
       <c r="AW91" s="3">
         <v>-1</v>
       </c>
-      <c r="AX91" s="8"/>
+      <c r="AX91" s="7"/>
     </row>
     <row r="92" spans="1:50">
       <c r="A92" s="3">
         <v>88</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -16728,7 +16721,7 @@
       <c r="AW92" s="3">
         <v>-1</v>
       </c>
-      <c r="AX92" s="8"/>
+      <c r="AX92" s="7"/>
     </row>
     <row r="93" spans="1:50">
       <c r="A93" s="3">
@@ -16878,7 +16871,7 @@
       <c r="AW93" s="3">
         <v>172</v>
       </c>
-      <c r="AX93" s="8" t="s">
+      <c r="AX93" s="7" t="s">
         <v>364</v>
       </c>
     </row>
@@ -17030,13 +17023,13 @@
       <c r="AW94" s="3">
         <v>-1</v>
       </c>
-      <c r="AX94" s="8"/>
+      <c r="AX94" s="7"/>
     </row>
     <row r="95" spans="1:50">
       <c r="A95" s="3">
         <v>91</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>368</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -17180,13 +17173,13 @@
       <c r="AW95" s="3">
         <v>-1</v>
       </c>
-      <c r="AX95" s="8"/>
+      <c r="AX95" s="7"/>
     </row>
     <row r="96" spans="1:50">
       <c r="A96" s="3">
         <v>92</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>371</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -17330,13 +17323,13 @@
       <c r="AW96" s="3">
         <v>-1</v>
       </c>
-      <c r="AX96" s="8"/>
+      <c r="AX96" s="7"/>
     </row>
     <row r="97" spans="1:50">
       <c r="A97" s="3">
         <v>93</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>374</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -17480,13 +17473,13 @@
       <c r="AW97" s="3">
         <v>-1</v>
       </c>
-      <c r="AX97" s="8"/>
+      <c r="AX97" s="7"/>
     </row>
     <row r="98" spans="1:50">
       <c r="A98" s="3">
         <v>94</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>377</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -17630,13 +17623,13 @@
       <c r="AW98" s="3">
         <v>-1</v>
       </c>
-      <c r="AX98" s="8"/>
+      <c r="AX98" s="7"/>
     </row>
     <row r="99" spans="1:50">
       <c r="A99" s="3">
         <v>95</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>379</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -17780,7 +17773,7 @@
       <c r="AW99" s="3">
         <v>-1</v>
       </c>
-      <c r="AX99" s="8"/>
+      <c r="AX99" s="7"/>
     </row>
     <row r="100" spans="1:50">
       <c r="A100" s="3">
@@ -17930,7 +17923,7 @@
       <c r="AW100" s="3">
         <v>-1</v>
       </c>
-      <c r="AX100" s="8"/>
+      <c r="AX100" s="7"/>
     </row>
     <row r="101" spans="1:50">
       <c r="A101" s="3">
@@ -18080,7 +18073,7 @@
       <c r="AW101" s="3">
         <v>-1</v>
       </c>
-      <c r="AX101" s="8"/>
+      <c r="AX101" s="7"/>
     </row>
     <row r="102" spans="1:50">
       <c r="A102" s="3">
@@ -18230,7 +18223,7 @@
       <c r="AW102" s="3">
         <v>-1</v>
       </c>
-      <c r="AX102" s="8"/>
+      <c r="AX102" s="7"/>
     </row>
     <row r="103" spans="1:50">
       <c r="A103" s="3">
@@ -18380,7 +18373,7 @@
       <c r="AW103" s="3">
         <v>-1</v>
       </c>
-      <c r="AX103" s="8"/>
+      <c r="AX103" s="7"/>
     </row>
     <row r="104" spans="1:50">
       <c r="A104" s="3">
@@ -18530,7 +18523,7 @@
       <c r="AW104" s="3">
         <v>-1</v>
       </c>
-      <c r="AX104" s="8"/>
+      <c r="AX104" s="7"/>
     </row>
     <row r="105" spans="1:50">
       <c r="A105" s="3">
@@ -18680,7 +18673,7 @@
       <c r="AW105" s="3">
         <v>-1</v>
       </c>
-      <c r="AX105" s="8"/>
+      <c r="AX105" s="7"/>
     </row>
     <row r="106" spans="1:50">
       <c r="A106" s="3">
@@ -18830,7 +18823,7 @@
       <c r="AW106" s="3">
         <v>-1</v>
       </c>
-      <c r="AX106" s="8"/>
+      <c r="AX106" s="7"/>
     </row>
     <row r="107" spans="1:50">
       <c r="A107" s="3">
@@ -18980,7 +18973,7 @@
       <c r="AW107" s="3">
         <v>-1</v>
       </c>
-      <c r="AX107" s="8"/>
+      <c r="AX107" s="7"/>
     </row>
     <row r="108" spans="1:50">
       <c r="A108" s="3">
@@ -19130,7 +19123,7 @@
       <c r="AW108" s="3">
         <v>-1</v>
       </c>
-      <c r="AX108" s="8"/>
+      <c r="AX108" s="7"/>
     </row>
     <row r="109" spans="1:50">
       <c r="A109" s="3">
@@ -19280,7 +19273,7 @@
       <c r="AW109" s="3">
         <v>-1</v>
       </c>
-      <c r="AX109" s="8"/>
+      <c r="AX109" s="7"/>
     </row>
     <row r="110" spans="1:50">
       <c r="A110" s="3">
@@ -19430,7 +19423,7 @@
       <c r="AW110" s="3">
         <v>-1</v>
       </c>
-      <c r="AX110" s="8"/>
+      <c r="AX110" s="7"/>
     </row>
     <row r="111" spans="1:50">
       <c r="A111" s="3">
@@ -19580,7 +19573,7 @@
       <c r="AW111" s="3">
         <v>-1</v>
       </c>
-      <c r="AX111" s="8"/>
+      <c r="AX111" s="7"/>
     </row>
     <row r="112" spans="1:50">
       <c r="A112" s="3">
@@ -19730,7 +19723,7 @@
       <c r="AW112" s="3">
         <v>-1</v>
       </c>
-      <c r="AX112" s="8"/>
+      <c r="AX112" s="7"/>
     </row>
     <row r="113" spans="1:50">
       <c r="A113" s="3">
@@ -19880,7 +19873,7 @@
       <c r="AW113" s="3">
         <v>-1</v>
       </c>
-      <c r="AX113" s="8"/>
+      <c r="AX113" s="7"/>
     </row>
     <row r="114" spans="1:50">
       <c r="A114" s="3">
@@ -20030,7 +20023,7 @@
       <c r="AW114" s="3">
         <v>-1</v>
       </c>
-      <c r="AX114" s="8"/>
+      <c r="AX114" s="7"/>
     </row>
     <row r="115" spans="1:50">
       <c r="A115" s="3">
@@ -20180,7 +20173,7 @@
       <c r="AW115" s="3">
         <v>-1</v>
       </c>
-      <c r="AX115" s="8"/>
+      <c r="AX115" s="7"/>
     </row>
     <row r="116" spans="1:50">
       <c r="A116" s="3">
@@ -20330,7 +20323,7 @@
       <c r="AW116" s="3">
         <v>-1</v>
       </c>
-      <c r="AX116" s="8"/>
+      <c r="AX116" s="7"/>
     </row>
     <row r="117" spans="1:50">
       <c r="A117" s="3">
@@ -20480,7 +20473,7 @@
       <c r="AW117" s="3">
         <v>-1</v>
       </c>
-      <c r="AX117" s="8"/>
+      <c r="AX117" s="7"/>
     </row>
     <row r="118" spans="1:50">
       <c r="A118" s="3">
@@ -20630,7 +20623,7 @@
       <c r="AW118" s="3">
         <v>-1</v>
       </c>
-      <c r="AX118" s="8"/>
+      <c r="AX118" s="7"/>
     </row>
     <row r="119" spans="1:50">
       <c r="A119" s="3">
@@ -20780,7 +20773,7 @@
       <c r="AW119" s="3">
         <v>-1</v>
       </c>
-      <c r="AX119" s="8"/>
+      <c r="AX119" s="7"/>
     </row>
     <row r="120" spans="1:50">
       <c r="A120" s="3">
@@ -20930,7 +20923,7 @@
       <c r="AW120" s="3">
         <v>-1</v>
       </c>
-      <c r="AX120" s="8"/>
+      <c r="AX120" s="7"/>
     </row>
     <row r="121" spans="1:50">
       <c r="A121" s="3">
@@ -21080,7 +21073,7 @@
       <c r="AW121" s="3">
         <v>-1</v>
       </c>
-      <c r="AX121" s="8"/>
+      <c r="AX121" s="7"/>
     </row>
     <row r="122" spans="1:50">
       <c r="A122" s="3">
@@ -21230,7 +21223,7 @@
       <c r="AW122" s="3">
         <v>-1</v>
       </c>
-      <c r="AX122" s="8"/>
+      <c r="AX122" s="7"/>
     </row>
     <row r="123" spans="1:50">
       <c r="A123" s="3">
@@ -21380,7 +21373,7 @@
       <c r="AW123" s="3">
         <v>-1</v>
       </c>
-      <c r="AX123" s="8"/>
+      <c r="AX123" s="7"/>
     </row>
     <row r="124" spans="1:50">
       <c r="A124" s="3">
@@ -21530,7 +21523,7 @@
       <c r="AW124" s="3">
         <v>-1</v>
       </c>
-      <c r="AX124" s="8"/>
+      <c r="AX124" s="7"/>
     </row>
     <row r="125" spans="1:50">
       <c r="A125" s="3">
@@ -21680,7 +21673,7 @@
       <c r="AW125" s="3">
         <v>-1</v>
       </c>
-      <c r="AX125" s="8"/>
+      <c r="AX125" s="7"/>
     </row>
     <row r="126" spans="1:50">
       <c r="A126" s="3">
@@ -21830,7 +21823,7 @@
       <c r="AW126" s="3">
         <v>-1</v>
       </c>
-      <c r="AX126" s="8"/>
+      <c r="AX126" s="7"/>
     </row>
     <row r="127" spans="1:50">
       <c r="A127" s="3">
@@ -21980,7 +21973,7 @@
       <c r="AW127" s="3">
         <v>-1</v>
       </c>
-      <c r="AX127" s="8"/>
+      <c r="AX127" s="7"/>
     </row>
     <row r="128" spans="1:50">
       <c r="A128" s="3">
@@ -22130,7 +22123,7 @@
       <c r="AW128" s="3">
         <v>-1</v>
       </c>
-      <c r="AX128" s="8"/>
+      <c r="AX128" s="7"/>
     </row>
     <row r="129" spans="1:50">
       <c r="A129" s="3">
@@ -22280,7 +22273,7 @@
       <c r="AW129" s="3">
         <v>-1</v>
       </c>
-      <c r="AX129" s="8"/>
+      <c r="AX129" s="7"/>
     </row>
     <row r="130" spans="1:50">
       <c r="A130" s="3">
@@ -22430,7 +22423,7 @@
       <c r="AW130" s="3">
         <v>-1</v>
       </c>
-      <c r="AX130" s="8"/>
+      <c r="AX130" s="7"/>
     </row>
     <row r="131" spans="1:50">
       <c r="A131" s="3">
@@ -22580,7 +22573,7 @@
       <c r="AW131" s="3">
         <v>-1</v>
       </c>
-      <c r="AX131" s="8"/>
+      <c r="AX131" s="7"/>
     </row>
     <row r="132" spans="1:50">
       <c r="A132" s="3">
@@ -22730,7 +22723,7 @@
       <c r="AW132" s="3">
         <v>-1</v>
       </c>
-      <c r="AX132" s="8"/>
+      <c r="AX132" s="7"/>
     </row>
     <row r="133" spans="1:50">
       <c r="A133" s="3">
@@ -22880,7 +22873,7 @@
       <c r="AW133" s="3">
         <v>-1</v>
       </c>
-      <c r="AX133" s="8"/>
+      <c r="AX133" s="7"/>
     </row>
     <row r="134" spans="1:50">
       <c r="A134" s="3">
@@ -23030,7 +23023,7 @@
       <c r="AW134" s="3">
         <v>-1</v>
       </c>
-      <c r="AX134" s="8"/>
+      <c r="AX134" s="7"/>
     </row>
     <row r="135" spans="1:50">
       <c r="A135" s="3">
@@ -23180,7 +23173,7 @@
       <c r="AW135" s="3">
         <v>-1</v>
       </c>
-      <c r="AX135" s="8"/>
+      <c r="AX135" s="7"/>
     </row>
     <row r="136" spans="1:50">
       <c r="A136" s="3">
@@ -23330,7 +23323,7 @@
       <c r="AW136" s="3">
         <v>-1</v>
       </c>
-      <c r="AX136" s="8"/>
+      <c r="AX136" s="7"/>
     </row>
     <row r="137" spans="1:50">
       <c r="A137" s="3">
@@ -23480,7 +23473,7 @@
       <c r="AW137" s="3">
         <v>-1</v>
       </c>
-      <c r="AX137" s="8"/>
+      <c r="AX137" s="7"/>
     </row>
     <row r="138" spans="1:50">
       <c r="A138" s="3">
@@ -23630,7 +23623,7 @@
       <c r="AW138" s="3">
         <v>-1</v>
       </c>
-      <c r="AX138" s="8"/>
+      <c r="AX138" s="7"/>
     </row>
     <row r="139" spans="1:50">
       <c r="A139" s="3">
@@ -23780,7 +23773,7 @@
       <c r="AW139" s="3">
         <v>-1</v>
       </c>
-      <c r="AX139" s="8"/>
+      <c r="AX139" s="7"/>
     </row>
     <row r="140" spans="1:50">
       <c r="A140" s="3">
@@ -23930,7 +23923,7 @@
       <c r="AW140" s="3">
         <v>-1</v>
       </c>
-      <c r="AX140" s="8"/>
+      <c r="AX140" s="7"/>
     </row>
     <row r="141" spans="1:50">
       <c r="A141" s="3">
@@ -24080,7 +24073,7 @@
       <c r="AW141" s="3">
         <v>-1</v>
       </c>
-      <c r="AX141" s="8"/>
+      <c r="AX141" s="7"/>
     </row>
     <row r="142" spans="1:50">
       <c r="A142" s="3">
@@ -24230,7 +24223,7 @@
       <c r="AW142" s="3">
         <v>-1</v>
       </c>
-      <c r="AX142" s="8"/>
+      <c r="AX142" s="7"/>
     </row>
     <row r="143" spans="1:50">
       <c r="A143" s="3">
@@ -24380,7 +24373,7 @@
       <c r="AW143" s="3">
         <v>-1</v>
       </c>
-      <c r="AX143" s="8"/>
+      <c r="AX143" s="7"/>
     </row>
     <row r="144" spans="1:50">
       <c r="A144" s="3">
@@ -24530,7 +24523,7 @@
       <c r="AW144" s="3">
         <v>-1</v>
       </c>
-      <c r="AX144" s="8"/>
+      <c r="AX144" s="7"/>
     </row>
     <row r="145" spans="1:50">
       <c r="A145" s="3">
@@ -24680,7 +24673,7 @@
       <c r="AW145" s="3">
         <v>-1</v>
       </c>
-      <c r="AX145" s="8"/>
+      <c r="AX145" s="7"/>
     </row>
     <row r="146" spans="1:50">
       <c r="A146" s="3">
@@ -24830,7 +24823,7 @@
       <c r="AW146" s="3">
         <v>-1</v>
       </c>
-      <c r="AX146" s="8"/>
+      <c r="AX146" s="7"/>
     </row>
     <row r="147" spans="1:50">
       <c r="A147" s="3">
@@ -24980,7 +24973,7 @@
       <c r="AW147" s="3">
         <v>-1</v>
       </c>
-      <c r="AX147" s="8"/>
+      <c r="AX147" s="7"/>
     </row>
     <row r="148" spans="1:50">
       <c r="A148" s="3">
@@ -25130,7 +25123,7 @@
       <c r="AW148" s="3">
         <v>-1</v>
       </c>
-      <c r="AX148" s="8"/>
+      <c r="AX148" s="7"/>
     </row>
     <row r="149" spans="1:50">
       <c r="A149" s="3">
@@ -25280,7 +25273,7 @@
       <c r="AW149" s="3">
         <v>-1</v>
       </c>
-      <c r="AX149" s="8"/>
+      <c r="AX149" s="7"/>
     </row>
     <row r="150" spans="1:50">
       <c r="A150" s="3">
@@ -25430,7 +25423,7 @@
       <c r="AW150" s="3">
         <v>-1</v>
       </c>
-      <c r="AX150" s="8"/>
+      <c r="AX150" s="7"/>
     </row>
     <row r="151" spans="1:50">
       <c r="A151" s="3">
@@ -25580,7 +25573,7 @@
       <c r="AW151" s="3">
         <v>-1</v>
       </c>
-      <c r="AX151" s="8"/>
+      <c r="AX151" s="7"/>
     </row>
     <row r="152" spans="1:50">
       <c r="A152" s="3">
@@ -25730,7 +25723,7 @@
       <c r="AW152" s="3">
         <v>-1</v>
       </c>
-      <c r="AX152" s="8"/>
+      <c r="AX152" s="7"/>
     </row>
     <row r="153" spans="1:50">
       <c r="A153" s="3">
@@ -25880,7 +25873,7 @@
       <c r="AW153" s="3">
         <v>-1</v>
       </c>
-      <c r="AX153" s="8"/>
+      <c r="AX153" s="7"/>
     </row>
     <row r="154" spans="1:50">
       <c r="A154" s="3">
@@ -26030,7 +26023,7 @@
       <c r="AW154" s="3">
         <v>-1</v>
       </c>
-      <c r="AX154" s="8"/>
+      <c r="AX154" s="7"/>
     </row>
     <row r="155" spans="1:50">
       <c r="A155" s="3">
@@ -26180,7 +26173,7 @@
       <c r="AW155" s="3">
         <v>-1</v>
       </c>
-      <c r="AX155" s="8"/>
+      <c r="AX155" s="7"/>
     </row>
     <row r="156" spans="1:50">
       <c r="A156" s="3">
@@ -26330,7 +26323,7 @@
       <c r="AW156" s="3">
         <v>-1</v>
       </c>
-      <c r="AX156" s="8"/>
+      <c r="AX156" s="7"/>
     </row>
     <row r="157" spans="1:50">
       <c r="A157" s="3">
@@ -26480,7 +26473,7 @@
       <c r="AW157" s="3">
         <v>-1</v>
       </c>
-      <c r="AX157" s="8"/>
+      <c r="AX157" s="7"/>
     </row>
     <row r="158" spans="1:50">
       <c r="A158" s="3">
@@ -26630,7 +26623,7 @@
       <c r="AW158" s="3">
         <v>-1</v>
       </c>
-      <c r="AX158" s="8"/>
+      <c r="AX158" s="7"/>
     </row>
     <row r="159" spans="1:50">
       <c r="A159" s="3">
@@ -26780,7 +26773,7 @@
       <c r="AW159" s="3">
         <v>-1</v>
       </c>
-      <c r="AX159" s="8"/>
+      <c r="AX159" s="7"/>
     </row>
     <row r="160" spans="1:50">
       <c r="A160" s="3">
@@ -26930,7 +26923,7 @@
       <c r="AW160" s="3">
         <v>-1</v>
       </c>
-      <c r="AX160" s="8"/>
+      <c r="AX160" s="7"/>
     </row>
     <row r="161" spans="1:50">
       <c r="A161" s="3">
@@ -27080,7 +27073,7 @@
       <c r="AW161" s="3">
         <v>-1</v>
       </c>
-      <c r="AX161" s="8"/>
+      <c r="AX161" s="7"/>
     </row>
     <row r="162" spans="1:50">
       <c r="A162" s="3">
@@ -27230,7 +27223,7 @@
       <c r="AW162" s="3">
         <v>-1</v>
       </c>
-      <c r="AX162" s="8"/>
+      <c r="AX162" s="7"/>
     </row>
     <row r="163" spans="1:50">
       <c r="A163" s="3">
@@ -27380,7 +27373,7 @@
       <c r="AW163" s="3">
         <v>-1</v>
       </c>
-      <c r="AX163" s="8"/>
+      <c r="AX163" s="7"/>
     </row>
     <row r="164" spans="1:50">
       <c r="A164" s="3">
@@ -27530,7 +27523,7 @@
       <c r="AW164" s="3">
         <v>-1</v>
       </c>
-      <c r="AX164" s="8"/>
+      <c r="AX164" s="7"/>
     </row>
     <row r="165" spans="1:50">
       <c r="A165" s="3">
@@ -27680,7 +27673,7 @@
       <c r="AW165" s="3">
         <v>-1</v>
       </c>
-      <c r="AX165" s="8"/>
+      <c r="AX165" s="7"/>
     </row>
     <row r="166" spans="1:50">
       <c r="A166" s="3">
@@ -27830,7 +27823,7 @@
       <c r="AW166" s="3">
         <v>-1</v>
       </c>
-      <c r="AX166" s="8"/>
+      <c r="AX166" s="7"/>
     </row>
     <row r="167" spans="1:50">
       <c r="A167" s="3">
@@ -27980,7 +27973,7 @@
       <c r="AW167" s="3">
         <v>-1</v>
       </c>
-      <c r="AX167" s="8"/>
+      <c r="AX167" s="7"/>
     </row>
     <row r="168" spans="1:50">
       <c r="A168" s="3">
@@ -28130,7 +28123,7 @@
       <c r="AW168" s="3">
         <v>-1</v>
       </c>
-      <c r="AX168" s="8"/>
+      <c r="AX168" s="7"/>
     </row>
     <row r="169" spans="1:50">
       <c r="A169" s="3">
@@ -28280,7 +28273,7 @@
       <c r="AW169" s="3">
         <v>-1</v>
       </c>
-      <c r="AX169" s="8"/>
+      <c r="AX169" s="7"/>
     </row>
     <row r="170" spans="1:50">
       <c r="A170" s="3">
@@ -28430,7 +28423,7 @@
       <c r="AW170" s="3">
         <v>-1</v>
       </c>
-      <c r="AX170" s="8"/>
+      <c r="AX170" s="7"/>
     </row>
     <row r="171" spans="1:50">
       <c r="A171" s="3">
@@ -28580,7 +28573,7 @@
       <c r="AW171" s="3">
         <v>-1</v>
       </c>
-      <c r="AX171" s="8"/>
+      <c r="AX171" s="7"/>
     </row>
     <row r="172" spans="1:50">
       <c r="A172" s="3">
@@ -28730,7 +28723,7 @@
       <c r="AW172" s="3">
         <v>-1</v>
       </c>
-      <c r="AX172" s="8"/>
+      <c r="AX172" s="7"/>
     </row>
     <row r="173" spans="1:50">
       <c r="A173" s="3">
@@ -28880,7 +28873,7 @@
       <c r="AW173" s="3">
         <v>-1</v>
       </c>
-      <c r="AX173" s="8"/>
+      <c r="AX173" s="7"/>
     </row>
     <row r="174" spans="1:50">
       <c r="A174" s="3">
@@ -29030,7 +29023,7 @@
       <c r="AW174" s="3">
         <v>-1</v>
       </c>
-      <c r="AX174" s="8"/>
+      <c r="AX174" s="7"/>
     </row>
     <row r="175" spans="1:50">
       <c r="A175" s="3">
@@ -29180,7 +29173,7 @@
       <c r="AW175" s="3">
         <v>-1</v>
       </c>
-      <c r="AX175" s="8"/>
+      <c r="AX175" s="7"/>
     </row>
     <row r="176" spans="1:50">
       <c r="A176" s="3">
@@ -29330,7 +29323,7 @@
       <c r="AW176" s="3">
         <v>-1</v>
       </c>
-      <c r="AX176" s="8"/>
+      <c r="AX176" s="7"/>
     </row>
     <row r="177" spans="1:50">
       <c r="A177" s="3">
@@ -29480,7 +29473,7 @@
       <c r="AW177" s="3">
         <v>-1</v>
       </c>
-      <c r="AX177" s="8"/>
+      <c r="AX177" s="7"/>
     </row>
     <row r="178" spans="1:50">
       <c r="A178" s="3">
@@ -29630,7 +29623,7 @@
       <c r="AW178" s="3">
         <v>-1</v>
       </c>
-      <c r="AX178" s="8"/>
+      <c r="AX178" s="7"/>
     </row>
     <row r="179" spans="1:50">
       <c r="A179" s="3">
@@ -29780,7 +29773,7 @@
       <c r="AW179" s="3">
         <v>-1</v>
       </c>
-      <c r="AX179" s="8"/>
+      <c r="AX179" s="7"/>
     </row>
     <row r="180" spans="1:50">
       <c r="A180" s="3">
@@ -29930,7 +29923,7 @@
       <c r="AW180" s="3">
         <v>-1</v>
       </c>
-      <c r="AX180" s="8"/>
+      <c r="AX180" s="7"/>
     </row>
     <row r="181" spans="1:50">
       <c r="A181" s="3">
@@ -30080,7 +30073,7 @@
       <c r="AW181" s="3">
         <v>-1</v>
       </c>
-      <c r="AX181" s="8"/>
+      <c r="AX181" s="7"/>
     </row>
     <row r="182" spans="1:50">
       <c r="A182" s="3">
@@ -30230,7 +30223,7 @@
       <c r="AW182" s="3">
         <v>-1</v>
       </c>
-      <c r="AX182" s="8"/>
+      <c r="AX182" s="7"/>
     </row>
     <row r="183" spans="1:50">
       <c r="A183" s="3">
@@ -30380,7 +30373,7 @@
       <c r="AW183" s="3">
         <v>-1</v>
       </c>
-      <c r="AX183" s="8"/>
+      <c r="AX183" s="7"/>
     </row>
     <row r="184" spans="1:50">
       <c r="A184" s="3">
@@ -30530,7 +30523,7 @@
       <c r="AW184" s="3">
         <v>-1</v>
       </c>
-      <c r="AX184" s="8"/>
+      <c r="AX184" s="7"/>
     </row>
     <row r="185" spans="1:50">
       <c r="A185" s="3">
@@ -30680,7 +30673,7 @@
       <c r="AW185" s="3">
         <v>-1</v>
       </c>
-      <c r="AX185" s="8"/>
+      <c r="AX185" s="7"/>
     </row>
     <row r="186" spans="1:50">
       <c r="A186" s="3">
@@ -30830,7 +30823,7 @@
       <c r="AW186" s="3">
         <v>-1</v>
       </c>
-      <c r="AX186" s="8"/>
+      <c r="AX186" s="7"/>
     </row>
     <row r="187" spans="1:50">
       <c r="A187" s="3">
@@ -30980,7 +30973,7 @@
       <c r="AW187" s="3">
         <v>-1</v>
       </c>
-      <c r="AX187" s="8"/>
+      <c r="AX187" s="7"/>
     </row>
     <row r="188" spans="1:50">
       <c r="A188" s="3">
@@ -31130,7 +31123,7 @@
       <c r="AW188" s="3">
         <v>-1</v>
       </c>
-      <c r="AX188" s="8"/>
+      <c r="AX188" s="7"/>
     </row>
     <row r="189" spans="1:50">
       <c r="A189" s="3">
@@ -31280,7 +31273,7 @@
       <c r="AW189" s="3">
         <v>-1</v>
       </c>
-      <c r="AX189" s="8"/>
+      <c r="AX189" s="7"/>
     </row>
     <row r="190" spans="1:50">
       <c r="A190" s="3">
@@ -31430,7 +31423,7 @@
       <c r="AW190" s="3">
         <v>-1</v>
       </c>
-      <c r="AX190" s="8"/>
+      <c r="AX190" s="7"/>
     </row>
     <row r="191" spans="1:50">
       <c r="A191" s="3">
@@ -31580,7 +31573,7 @@
       <c r="AW191" s="3">
         <v>-1</v>
       </c>
-      <c r="AX191" s="8"/>
+      <c r="AX191" s="7"/>
     </row>
     <row r="192" spans="1:50">
       <c r="A192" s="3">
@@ -31730,7 +31723,7 @@
       <c r="AW192" s="3">
         <v>-1</v>
       </c>
-      <c r="AX192" s="8"/>
+      <c r="AX192" s="7"/>
     </row>
     <row r="193" spans="1:50">
       <c r="A193" s="3">
@@ -31880,7 +31873,7 @@
       <c r="AW193" s="3">
         <v>-1</v>
       </c>
-      <c r="AX193" s="8"/>
+      <c r="AX193" s="7"/>
     </row>
     <row r="194" spans="1:50">
       <c r="A194" s="3">
@@ -32030,7 +32023,7 @@
       <c r="AW194" s="3">
         <v>-1</v>
       </c>
-      <c r="AX194" s="8"/>
+      <c r="AX194" s="7"/>
     </row>
     <row r="195" spans="1:50">
       <c r="A195" s="3">
@@ -32180,7 +32173,7 @@
       <c r="AW195" s="3">
         <v>-1</v>
       </c>
-      <c r="AX195" s="8"/>
+      <c r="AX195" s="7"/>
     </row>
     <row r="196" spans="1:50">
       <c r="A196" s="3">
@@ -32330,7 +32323,7 @@
       <c r="AW196" s="3">
         <v>-1</v>
       </c>
-      <c r="AX196" s="8"/>
+      <c r="AX196" s="7"/>
     </row>
     <row r="197" spans="1:50">
       <c r="A197" s="3">
@@ -32480,7 +32473,7 @@
       <c r="AW197" s="3">
         <v>-1</v>
       </c>
-      <c r="AX197" s="8"/>
+      <c r="AX197" s="7"/>
     </row>
     <row r="198" spans="1:50">
       <c r="A198" s="3">
@@ -32630,7 +32623,7 @@
       <c r="AW198" s="3">
         <v>-1</v>
       </c>
-      <c r="AX198" s="8"/>
+      <c r="AX198" s="7"/>
     </row>
     <row r="199" spans="1:50">
       <c r="A199" s="3">
@@ -32780,7 +32773,7 @@
       <c r="AW199" s="3">
         <v>-1</v>
       </c>
-      <c r="AX199" s="8"/>
+      <c r="AX199" s="7"/>
     </row>
     <row r="200" spans="1:50">
       <c r="A200" s="3">
@@ -32930,7 +32923,7 @@
       <c r="AW200" s="3">
         <v>-1</v>
       </c>
-      <c r="AX200" s="8"/>
+      <c r="AX200" s="7"/>
     </row>
     <row r="201" spans="1:50">
       <c r="A201" s="3">
@@ -33080,7 +33073,7 @@
       <c r="AW201" s="3">
         <v>-1</v>
       </c>
-      <c r="AX201" s="8"/>
+      <c r="AX201" s="7"/>
     </row>
     <row r="202" spans="1:50">
       <c r="A202" s="3">
@@ -33230,7 +33223,7 @@
       <c r="AW202" s="3">
         <v>-1</v>
       </c>
-      <c r="AX202" s="8"/>
+      <c r="AX202" s="7"/>
     </row>
     <row r="203" spans="1:50">
       <c r="A203" s="3">
@@ -33380,7 +33373,7 @@
       <c r="AW203" s="3">
         <v>-1</v>
       </c>
-      <c r="AX203" s="8"/>
+      <c r="AX203" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/物品.xlsx
@@ -1000,7 +1000,7 @@
     <t>少林七十二绝技之一</t>
   </si>
   <si>
-    <t>玄铁斩秘笈</t>
+    <t>玄铁重剑秘笈</t>
   </si>
   <si>
     <t>玄铁</t>
@@ -3047,9 +3047,9 @@
   <dimension ref="A1:AX203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/jyx2/Assets/Mods/xiastart_roguelike/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/xiastart_roguelike/Configs/物品.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="13890" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -538,7 +538,7 @@
     <t>牛黄血竭丹</t>
   </si>
   <si>
-    <t>胡青牛秘方之解毒灵药</t>
+    <t>蝶谷医仙秘方之解毒灵药</t>
   </si>
   <si>
     <t>六阳正气丹</t>
@@ -784,7 +784,7 @@
     <t>毒</t>
   </si>
   <si>
-    <t>毒仙王难姑所著之用毒宝典</t>
+    <t>王毒仙所著之用毒宝典</t>
   </si>
   <si>
     <t>22,3|23,6|24,9|25,12</t>
@@ -922,7 +922,7 @@
     <t>松</t>
   </si>
   <si>
-    <t>四川青城之剑法</t>
+    <t>青城派之剑法</t>
   </si>
   <si>
     <t>泰山五神剑</t>
@@ -943,7 +943,7 @@
     <t>七星剑谱</t>
   </si>
   <si>
-    <t>王重阳悟于北斗七星之剑法</t>
+    <t>全真掌门悟于北斗七星之剑法</t>
   </si>
   <si>
     <t>两仪剑法</t>
@@ -961,7 +961,7 @@
     <t>金蛇</t>
   </si>
   <si>
-    <t>金蛇郎君观蛇时悟出之剑法</t>
+    <t>黄蟒郎君观蟒时悟出之剑法</t>
   </si>
   <si>
     <t>玉女剑谱</t>
@@ -979,7 +979,7 @@
     <t>苗</t>
   </si>
   <si>
-    <t>苗人凤家传剑法</t>
+    <t>苗大侠家传剑法</t>
   </si>
   <si>
     <t>太极剑法</t>
@@ -988,7 +988,7 @@
     <t>太极剑</t>
   </si>
   <si>
-    <t>张三丰新创之剑法</t>
+    <t>张真人新创之剑法</t>
   </si>
   <si>
     <t>达摩剑谱</t>
@@ -1006,7 +1006,7 @@
     <t>玄铁</t>
   </si>
   <si>
-    <t>杨过悟于剑魔所留之秘籍</t>
+    <t>断臂侠悟于剑魔所留之秘籍</t>
   </si>
   <si>
     <t>阴邪神剑谱</t>
@@ -1024,7 +1024,7 @@
     <t>独</t>
   </si>
   <si>
-    <t>独孤求败所创之高深剑法</t>
+    <t>但求一败所创之高深剑法</t>
   </si>
   <si>
     <t>血刀斩法谱</t>
@@ -1066,7 +1066,7 @@
     <t>古月刀法</t>
   </si>
   <si>
-    <t>胡一刀家传之刀谱</t>
+    <t>古月家传之刀谱</t>
   </si>
   <si>
     <t>霹雳刀法</t>
@@ -1186,7 +1186,7 @@
     <t>金蛇锥</t>
   </si>
   <si>
-    <t>金蛇郎君之独门暗器</t>
+    <t>黄蟒郎君之独门暗器</t>
   </si>
   <si>
     <t>霹雳弹</t>
@@ -1261,7 +1261,7 @@
     <t>金蛇剑</t>
   </si>
   <si>
-    <t>金蛇郎君之随身武器</t>
+    <t>黄蟒郎君之随身武器</t>
   </si>
   <si>
     <t>凝碧剑</t>
@@ -1468,7 +1468,7 @@
     <t>可调和阴阳之毒</t>
   </si>
   <si>
-    <t>苗人凤眼毒解药</t>
+    <t>眼毒解药</t>
   </si>
   <si>
     <t>可医治断肠草粉末所制之毒</t>
@@ -1671,7 +1671,7 @@
     <t>红钥</t>
   </si>
   <si>
-    <t>梅庄二庄主黑白子给的钥匙</t>
+    <t>梅庄二庄主给的钥匙</t>
   </si>
   <si>
     <t>橙钥匙</t>
@@ -1689,7 +1689,7 @@
     <t>黄钥</t>
   </si>
   <si>
-    <t>孔八拉送的钥匙</t>
+    <t>皮裤男送的钥匙</t>
   </si>
   <si>
     <t>绿钥匙</t>
@@ -1698,7 +1698,7 @@
     <t>绿钥</t>
   </si>
   <si>
-    <t>孔八拉给的神秘钥匙</t>
+    <t>皮裤男给的神秘钥匙</t>
   </si>
   <si>
     <t>蓝钥匙</t>
@@ -1716,7 +1716,7 @@
     <t>紫钥</t>
   </si>
   <si>
-    <t>慕容复给的钥匙</t>
+    <t>慕容公子给的钥匙</t>
   </si>
   <si>
     <t>铁钥匙</t>
@@ -1836,7 +1836,7 @@
     <t>一撮金毛</t>
   </si>
   <si>
-    <t>金毛狮王谢逊之毛发</t>
+    <t>金毛狮王之毛发</t>
   </si>
   <si>
     <t>罗盘</t>
@@ -1866,13 +1866,13 @@
     <t>织有鸳鸯的手帕</t>
   </si>
   <si>
-    <t>林震南遗言</t>
+    <t>林镖头遗言</t>
   </si>
   <si>
     <t>林</t>
   </si>
   <si>
-    <t>福威镳局林震南死前留下之书信</t>
+    <t>林镖头死前留下之书信</t>
   </si>
   <si>
     <t>智慧果</t>
@@ -1902,7 +1902,7 @@
     <t>武</t>
   </si>
   <si>
-    <t>请持此函前往华山参加武林大会</t>
+    <t>请持此函参加武林大会</t>
   </si>
   <si>
     <t>明教铁焰令</t>
@@ -1917,7 +1917,7 @@
     <t>一颗头颅</t>
   </si>
   <si>
-    <t>成昆的项上人头</t>
+    <t>成霹雳的项上人头</t>
   </si>
   <si>
     <t>真武剑</t>
@@ -3047,14 +3047,15 @@
   <dimension ref="A1:AX203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3219,7 +3220,7 @@
       <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -7121,7 +7122,7 @@
       <c r="C29" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E29" s="3">
@@ -11179,7 +11180,7 @@
       <c r="C56" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>256</v>
       </c>
       <c r="E56" s="3">
@@ -13433,7 +13434,7 @@
       <c r="C71" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="4" t="s">
         <v>302</v>
       </c>
       <c r="E71" s="3">
@@ -13883,7 +13884,7 @@
       <c r="C74" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="4" t="s">
         <v>309</v>
       </c>
       <c r="E74" s="3">
@@ -14183,7 +14184,7 @@
       <c r="C76" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="4" t="s">
         <v>315</v>
       </c>
       <c r="E76" s="3">
@@ -14483,7 +14484,7 @@
       <c r="C78" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="4" t="s">
         <v>321</v>
       </c>
       <c r="E78" s="3">
@@ -14633,7 +14634,7 @@
       <c r="C79" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="4" t="s">
         <v>324</v>
       </c>
       <c r="E79" s="3">
@@ -14933,7 +14934,7 @@
       <c r="C81" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="4" t="s">
         <v>330</v>
       </c>
       <c r="E81" s="3">
@@ -15233,7 +15234,7 @@
       <c r="C83" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="4" t="s">
         <v>336</v>
       </c>
       <c r="E83" s="3">
@@ -15983,7 +15984,7 @@
       <c r="C88" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="4" t="s">
         <v>350</v>
       </c>
       <c r="E88" s="3">
@@ -18385,7 +18386,7 @@
       <c r="C104" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="4" t="s">
         <v>390</v>
       </c>
       <c r="E104" s="3">
@@ -19885,7 +19886,7 @@
       <c r="C114" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="4" t="s">
         <v>415</v>
       </c>
       <c r="E114" s="3">
@@ -23929,7 +23930,7 @@
       <c r="A141" s="3">
         <v>137</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>484</v>
       </c>
       <c r="C141" s="3" t="s">
@@ -27535,7 +27536,7 @@
       <c r="C165" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="4" t="s">
         <v>537</v>
       </c>
       <c r="E165" s="3">
@@ -27835,7 +27836,7 @@
       <c r="C167" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="4" t="s">
         <v>543</v>
       </c>
       <c r="E167" s="3">
@@ -27985,7 +27986,7 @@
       <c r="C168" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="4" t="s">
         <v>546</v>
       </c>
       <c r="E168" s="3">
@@ -28285,7 +28286,7 @@
       <c r="C170" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="4" t="s">
         <v>552</v>
       </c>
       <c r="E170" s="3">
@@ -30535,7 +30536,7 @@
       <c r="C185" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="4" t="s">
         <v>592</v>
       </c>
       <c r="E185" s="3">
@@ -31129,13 +31130,13 @@
       <c r="A189" s="3">
         <v>185</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="4" t="s">
         <v>602</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="4" t="s">
         <v>604</v>
       </c>
       <c r="E189" s="3">
@@ -31735,7 +31736,7 @@
       <c r="C193" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="4" t="s">
         <v>614</v>
       </c>
       <c r="E193" s="3">
@@ -32035,7 +32036,7 @@
       <c r="C195" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="4" t="s">
         <v>619</v>
       </c>
       <c r="E195" s="3">
